--- a/TC/TC.xlsx
+++ b/TC/TC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="9645"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="22260" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
   <si>
     <t>Test №</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Выбрать значение из выпадающего списка "В какое время мы можем перезвонить вам?"</t>
   </si>
   <si>
-    <t>Ввести имя в поле "Ваш адрес электронной почты"</t>
-  </si>
-  <si>
     <t>Выбрать дату в поле "Дата, на которую вы хотите заказать сеанс"</t>
   </si>
   <si>
@@ -157,6 +154,39 @@
   </si>
   <si>
     <t>Находиться на странице "Заказать зал"</t>
+  </si>
+  <si>
+    <t>Проверка работоспособности системы написания отзывов</t>
+  </si>
+  <si>
+    <t>Кликнуть ЛКМ на ссылку "О нас" в шапке</t>
+  </si>
+  <si>
+    <t>Кликнуть ЛКМ на ссылку "Оставить отзыв" в левой части экрана</t>
+  </si>
+  <si>
+    <t>Ввести телефон в поле "Ваш номер телефона"</t>
+  </si>
+  <si>
+    <t>Ввести адрес в поле "Ваш адрес электронной почты"</t>
+  </si>
+  <si>
+    <t>Ввести адрес в поле "Ваш электронный адрес"</t>
+  </si>
+  <si>
+    <t>Поставить галочку на чекбоксе "Придёте ли к нам ещё?"</t>
+  </si>
+  <si>
+    <t>Заполнить поле "Оставьте свой отзыв о нашей работе"</t>
+  </si>
+  <si>
+    <t>Откроется страница "О нас"</t>
+  </si>
+  <si>
+    <t>Откроется форма написания отзыва</t>
+  </si>
+  <si>
+    <t>Откроется страница с уведомлением об успешной отправке отзыва</t>
   </si>
 </sst>
 </file>
@@ -515,7 +545,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -528,6 +558,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,115 +675,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -930,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z86"/>
+  <dimension ref="A1:Z110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12:W14"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S113" sqref="S113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -945,186 +993,186 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="17" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="40" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
       <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40" t="s">
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="6"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="42"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37">
+      <c r="A3" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="35" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="24" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="39" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="36" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1136,8 +1184,8 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="43" t="s">
-        <v>43</v>
+      <c r="S6" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -1148,15 +1196,15 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1166,7 +1214,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="43"/>
+      <c r="S7" s="17"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -1176,15 +1224,15 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1194,7 +1242,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="43"/>
+      <c r="S8" s="17"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -1204,10 +1252,10 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1215,12 +1263,12 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="21"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="28"/>
       <c r="N9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1228,8 +1276,8 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="43" t="s">
-        <v>43</v>
+      <c r="S9" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -1240,25 +1288,25 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="22"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="29"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="43"/>
+      <c r="S10" s="17"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -1268,25 +1316,25 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="23"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="30"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="43"/>
+      <c r="S11" s="17"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -1296,10 +1344,10 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1308,7 +1356,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1320,8 +1368,8 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="43" t="s">
-        <v>43</v>
+      <c r="S12" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -1332,10 +1380,10 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1350,7 +1398,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="43"/>
+      <c r="S13" s="17"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -1360,10 +1408,10 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1378,7 +1426,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="43"/>
+      <c r="S14" s="17"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -1388,14 +1436,14 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
+      <c r="A15" s="6">
         <v>1.2</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1414,8 +1462,8 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="43" t="s">
-        <v>43</v>
+      <c r="S15" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -1426,10 +1474,10 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1444,7 +1492,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="43"/>
+      <c r="S16" s="17"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -1454,10 +1502,10 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1472,7 +1520,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="43"/>
+      <c r="S17" s="17"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -1482,10 +1530,10 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1504,8 +1552,8 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="43" t="s">
-        <v>43</v>
+      <c r="S18" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -1516,10 +1564,10 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1534,7 +1582,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="43"/>
+      <c r="S19" s="17"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -1544,10 +1592,10 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1562,7 +1610,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="43"/>
+      <c r="S20" s="17"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
@@ -1572,10 +1620,10 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1642,8 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="43" t="s">
-        <v>43</v>
+      <c r="S21" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -1606,10 +1654,10 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1624,7 +1672,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="43"/>
+      <c r="S22" s="17"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -1634,10 +1682,10 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1652,7 +1700,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="43"/>
+      <c r="S23" s="17"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -1662,10 +1710,10 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1684,8 +1732,8 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="43" t="s">
-        <v>43</v>
+      <c r="S24" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -1696,10 +1744,10 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1714,7 +1762,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="43"/>
+      <c r="S25" s="17"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
@@ -1724,10 +1772,10 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1742,7 +1790,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="43"/>
+      <c r="S26" s="17"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
@@ -1752,10 +1800,10 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="2" t="s">
         <v>24</v>
       </c>
@@ -1774,8 +1822,8 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="43" t="s">
-        <v>43</v>
+      <c r="S27" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -1786,10 +1834,10 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1804,7 +1852,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="43"/>
+      <c r="S28" s="17"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
@@ -1814,10 +1862,10 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1832,7 +1880,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="43"/>
+      <c r="S29" s="17"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
@@ -1842,10 +1890,10 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="2" t="s">
         <v>23</v>
       </c>
@@ -1864,8 +1912,8 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="43" t="s">
-        <v>43</v>
+      <c r="S30" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -1876,10 +1924,10 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1894,7 +1942,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="43"/>
+      <c r="S31" s="17"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -1904,10 +1952,10 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1922,7 +1970,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="43"/>
+      <c r="S32" s="17"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -1932,14 +1980,14 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <v>1.3</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="2" t="s">
         <v>13</v>
       </c>
@@ -1958,8 +2006,8 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="43" t="s">
-        <v>43</v>
+      <c r="S33" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -1970,10 +2018,10 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1988,7 +2036,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="43"/>
+      <c r="S34" s="17"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
@@ -1998,10 +2046,10 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2016,7 +2064,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="43"/>
+      <c r="S35" s="17"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
@@ -2026,10 +2074,10 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="2" t="s">
         <v>28</v>
       </c>
@@ -2042,14 +2090,14 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="43" t="s">
-        <v>43</v>
+      <c r="S36" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
@@ -2060,10 +2108,10 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2078,7 +2126,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="43"/>
+      <c r="S37" s="17"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
@@ -2088,10 +2136,10 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2106,7 +2154,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="43"/>
+      <c r="S38" s="17"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
@@ -2116,10 +2164,10 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="2" t="s">
         <v>29</v>
       </c>
@@ -2132,14 +2180,14 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="43" t="s">
-        <v>43</v>
+      <c r="S39" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
@@ -2150,10 +2198,10 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -2168,7 +2216,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="43"/>
+      <c r="S40" s="17"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
@@ -2178,10 +2226,10 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -2196,7 +2244,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="43"/>
+      <c r="S41" s="17"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
@@ -2206,10 +2254,10 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="2" t="s">
         <v>30</v>
       </c>
@@ -2222,14 +2270,14 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="43" t="s">
-        <v>43</v>
+      <c r="S42" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
@@ -2240,10 +2288,10 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2258,7 +2306,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="43"/>
+      <c r="S43" s="17"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
@@ -2268,10 +2316,10 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2286,7 +2334,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="43"/>
+      <c r="S44" s="17"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
@@ -2296,12 +2344,12 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="2" t="s">
-        <v>31</v>
+      <c r="A45" s="9"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2312,14 +2360,14 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="43" t="s">
-        <v>43</v>
+      <c r="S45" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
@@ -2330,10 +2378,10 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2348,7 +2396,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="43"/>
+      <c r="S46" s="17"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
@@ -2358,10 +2406,10 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2376,7 +2424,7 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="43"/>
+      <c r="S47" s="17"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
@@ -2386,12 +2434,12 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2402,14 +2450,14 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
-      <c r="S48" s="43" t="s">
-        <v>43</v>
+      <c r="S48" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
@@ -2420,10 +2468,10 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2438,7 +2486,7 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
-      <c r="S49" s="43"/>
+      <c r="S49" s="17"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
@@ -2448,10 +2496,10 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -2466,7 +2514,7 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="43"/>
+      <c r="S50" s="17"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
@@ -2476,12 +2524,12 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
       <c r="E51" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -2492,14 +2540,14 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="43" t="s">
-        <v>43</v>
+      <c r="S51" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
@@ -2510,10 +2558,10 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -2528,7 +2576,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
-      <c r="S52" s="43"/>
+      <c r="S52" s="17"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
@@ -2538,10 +2586,10 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2556,7 +2604,7 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
-      <c r="S53" s="43"/>
+      <c r="S53" s="17"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
@@ -2566,12 +2614,12 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -2582,14 +2630,14 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
-      <c r="S54" s="43" t="s">
-        <v>43</v>
+      <c r="S54" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
@@ -2600,10 +2648,10 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -2618,7 +2666,7 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
-      <c r="S55" s="43"/>
+      <c r="S55" s="17"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
@@ -2628,10 +2676,10 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -2646,7 +2694,7 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
-      <c r="S56" s="43"/>
+      <c r="S56" s="17"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
@@ -2656,12 +2704,12 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -2672,14 +2720,14 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
-      <c r="S57" s="43" t="s">
-        <v>43</v>
+      <c r="S57" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
@@ -2690,10 +2738,10 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2708,7 +2756,7 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
-      <c r="S58" s="43"/>
+      <c r="S58" s="17"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
@@ -2718,10 +2766,10 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -2736,7 +2784,7 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
-      <c r="S59" s="43"/>
+      <c r="S59" s="17"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
@@ -2746,14 +2794,14 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
+      <c r="A60" s="8">
         <v>1.4</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="B60" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
       <c r="E60" s="2" t="s">
         <v>13</v>
       </c>
@@ -2772,7 +2820,9 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
+      <c r="S60" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
@@ -2782,10 +2832,10 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -2800,7 +2850,7 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
+      <c r="S61" s="17"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
@@ -2810,10 +2860,10 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -2828,7 +2878,7 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
+      <c r="S62" s="17"/>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
@@ -2838,12 +2888,12 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -2854,13 +2904,15 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
+      <c r="S63" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
@@ -2870,10 +2922,10 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="8"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -2888,7 +2940,7 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
+      <c r="S64" s="17"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
@@ -2898,10 +2950,10 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -2916,7 +2968,7 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
+      <c r="S65" s="17"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
@@ -2926,10 +2978,10 @@
       <c r="Z65" s="2"/>
     </row>
     <row r="66" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="2" t="s">
         <v>29</v>
       </c>
@@ -2942,13 +2994,15 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
+      <c r="S66" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
@@ -2958,10 +3012,10 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -2976,7 +3030,7 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
+      <c r="S67" s="17"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
@@ -2986,10 +3040,10 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -3004,7 +3058,7 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
+      <c r="S68" s="17"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
@@ -3014,10 +3068,10 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="8"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
       <c r="E69" s="2" t="s">
         <v>30</v>
       </c>
@@ -3030,13 +3084,15 @@
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
+      <c r="S69" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
@@ -3046,10 +3102,10 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -3064,7 +3120,7 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
+      <c r="S70" s="17"/>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
@@ -3074,10 +3130,10 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -3092,7 +3148,7 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
+      <c r="S71" s="17"/>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
@@ -3101,13 +3157,13 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="2" t="s">
-        <v>31</v>
+    <row r="72" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="9"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -3118,13 +3174,15 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
+      <c r="S72" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
@@ -3134,10 +3192,10 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="8"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -3152,7 +3210,7 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
+      <c r="S73" s="17"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
@@ -3162,10 +3220,10 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="8"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -3180,7 +3238,7 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
+      <c r="S74" s="17"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
@@ -3190,12 +3248,12 @@
       <c r="Z74" s="2"/>
     </row>
     <row r="75" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="8"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
       <c r="E75" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -3206,13 +3264,15 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
+      <c r="S75" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
@@ -3222,10 +3282,10 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="8"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -3240,7 +3300,7 @@
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
+      <c r="S76" s="17"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
@@ -3250,10 +3310,10 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="8"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -3268,7 +3328,7 @@
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
+      <c r="S77" s="17"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
@@ -3278,12 +3338,12 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="8"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
       <c r="E78" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -3294,13 +3354,15 @@
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
+      <c r="S78" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
@@ -3310,10 +3372,10 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="8"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -3328,7 +3390,7 @@
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
+      <c r="S79" s="17"/>
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
@@ -3338,10 +3400,10 @@
       <c r="Z79" s="2"/>
     </row>
     <row r="80" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="8"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -3356,7 +3418,7 @@
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
+      <c r="S80" s="17"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
@@ -3366,12 +3428,12 @@
       <c r="Z80" s="2"/>
     </row>
     <row r="81" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="8"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
       <c r="E81" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -3382,13 +3444,15 @@
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
+      <c r="S81" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
@@ -3398,10 +3462,10 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="8"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -3416,7 +3480,7 @@
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
+      <c r="S82" s="17"/>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
@@ -3426,10 +3490,10 @@
       <c r="Z82" s="2"/>
     </row>
     <row r="83" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="8"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -3444,7 +3508,7 @@
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
+      <c r="S83" s="17"/>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
@@ -3454,12 +3518,12 @@
       <c r="Z83" s="2"/>
     </row>
     <row r="84" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="8"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
       <c r="E84" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -3470,13 +3534,15 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
+      <c r="S84" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
@@ -3486,10 +3552,10 @@
       <c r="Z84" s="2"/>
     </row>
     <row r="85" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="8"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -3504,7 +3570,7 @@
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
       <c r="R85" s="2"/>
-      <c r="S85" s="2"/>
+      <c r="S85" s="17"/>
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
@@ -3514,10 +3580,10 @@
       <c r="Z85" s="2"/>
     </row>
     <row r="86" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="9"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -3532,7 +3598,7 @@
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
-      <c r="S86" s="2"/>
+      <c r="S86" s="17"/>
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
@@ -3541,96 +3607,805 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
+    <row r="87" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="B87" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+    </row>
+    <row r="88" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="45"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="17"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
+    </row>
+    <row r="89" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="45"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="17"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+    </row>
+    <row r="90" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="45"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2"/>
+    </row>
+    <row r="91" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="45"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="47"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="17"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="2"/>
+      <c r="Z91" s="2"/>
+    </row>
+    <row r="92" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="45"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="17"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
+    </row>
+    <row r="93" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="45"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="2"/>
+    </row>
+    <row r="94" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="45"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="17"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="2"/>
+    </row>
+    <row r="95" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="45"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="17"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
+      <c r="Z95" s="2"/>
+    </row>
+    <row r="96" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="45"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="47"/>
+      <c r="D96" s="47"/>
+      <c r="E96" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
+    </row>
+    <row r="97" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="45"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="47"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="17"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
+    </row>
+    <row r="98" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="45"/>
+      <c r="B98" s="47"/>
+      <c r="C98" s="47"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="17"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
+    </row>
+    <row r="99" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="45"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
+    </row>
+    <row r="100" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="45"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="47"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="17"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
+    </row>
+    <row r="101" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="45"/>
+      <c r="B101" s="47"/>
+      <c r="C101" s="47"/>
+      <c r="D101" s="47"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="17"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
+    </row>
+    <row r="102" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="45"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
+    </row>
+    <row r="103" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="45"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="17"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="2"/>
+    </row>
+    <row r="104" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="45"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="47"/>
+      <c r="D104" s="47"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="17"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="2"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="2"/>
+      <c r="Z104" s="2"/>
+    </row>
+    <row r="105" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="45"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="47"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="2"/>
+      <c r="Y105" s="2"/>
+      <c r="Z105" s="2"/>
+    </row>
+    <row r="106" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="45"/>
+      <c r="B106" s="47"/>
+      <c r="C106" s="47"/>
+      <c r="D106" s="47"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="17"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
+    </row>
+    <row r="107" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="45"/>
+      <c r="B107" s="47"/>
+      <c r="C107" s="47"/>
+      <c r="D107" s="47"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="17"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="2"/>
+      <c r="Z107" s="2"/>
+    </row>
+    <row r="108" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="45"/>
+      <c r="B108" s="47"/>
+      <c r="C108" s="47"/>
+      <c r="D108" s="47"/>
+      <c r="E108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="Z108" s="2"/>
+    </row>
+    <row r="109" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="45"/>
+      <c r="B109" s="47"/>
+      <c r="C109" s="47"/>
+      <c r="D109" s="47"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="17"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="2"/>
+      <c r="Y109" s="2"/>
+      <c r="Z109" s="2"/>
+    </row>
+    <row r="110" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="48"/>
+      <c r="B110" s="49"/>
+      <c r="C110" s="49"/>
+      <c r="D110" s="49"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="17"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="2"/>
+      <c r="Y110" s="2"/>
+      <c r="Z110" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="183">
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="E3:I5"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="A15:A32"/>
-    <mergeCell ref="X6:Z8"/>
-    <mergeCell ref="N9:R11"/>
-    <mergeCell ref="S9:S11"/>
-    <mergeCell ref="T9:W11"/>
-    <mergeCell ref="X9:Z11"/>
-    <mergeCell ref="E6:I8"/>
-    <mergeCell ref="E9:I11"/>
-    <mergeCell ref="E12:I14"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="N3:R5"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="T3:W5"/>
-    <mergeCell ref="X3:Z5"/>
-    <mergeCell ref="J6:M8"/>
-    <mergeCell ref="N6:R8"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="T6:W8"/>
-    <mergeCell ref="J12:M14"/>
-    <mergeCell ref="N12:R14"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="T12:W14"/>
-    <mergeCell ref="X12:Z14"/>
-    <mergeCell ref="N15:R17"/>
-    <mergeCell ref="N18:R20"/>
-    <mergeCell ref="S15:S17"/>
-    <mergeCell ref="S18:S20"/>
-    <mergeCell ref="T15:W17"/>
-    <mergeCell ref="X15:Z17"/>
-    <mergeCell ref="T18:W20"/>
-    <mergeCell ref="X18:Z20"/>
-    <mergeCell ref="E21:I23"/>
-    <mergeCell ref="E24:I26"/>
-    <mergeCell ref="J21:M23"/>
-    <mergeCell ref="E15:I17"/>
-    <mergeCell ref="E18:I20"/>
-    <mergeCell ref="J15:M17"/>
-    <mergeCell ref="J18:M20"/>
-    <mergeCell ref="N27:R29"/>
-    <mergeCell ref="N30:R32"/>
-    <mergeCell ref="T27:W29"/>
-    <mergeCell ref="T30:W32"/>
-    <mergeCell ref="X27:Z29"/>
-    <mergeCell ref="X30:Z32"/>
-    <mergeCell ref="S27:S29"/>
-    <mergeCell ref="S30:S32"/>
-    <mergeCell ref="X21:Z23"/>
-    <mergeCell ref="T24:W26"/>
-    <mergeCell ref="X24:Z26"/>
-    <mergeCell ref="E27:I29"/>
-    <mergeCell ref="E30:I32"/>
-    <mergeCell ref="J27:M29"/>
-    <mergeCell ref="J30:M32"/>
-    <mergeCell ref="J24:M26"/>
-    <mergeCell ref="N21:R23"/>
-    <mergeCell ref="N24:R26"/>
-    <mergeCell ref="S21:S23"/>
-    <mergeCell ref="S24:S26"/>
-    <mergeCell ref="T21:W23"/>
-    <mergeCell ref="E42:I44"/>
-    <mergeCell ref="J42:M44"/>
-    <mergeCell ref="N33:R35"/>
-    <mergeCell ref="N36:R38"/>
-    <mergeCell ref="N39:R41"/>
-    <mergeCell ref="N42:R44"/>
-    <mergeCell ref="E33:I35"/>
-    <mergeCell ref="J33:M35"/>
-    <mergeCell ref="E36:I38"/>
-    <mergeCell ref="J36:M38"/>
-    <mergeCell ref="E39:I41"/>
-    <mergeCell ref="J39:M41"/>
-    <mergeCell ref="J45:M47"/>
-    <mergeCell ref="J48:M50"/>
-    <mergeCell ref="S45:S47"/>
-    <mergeCell ref="S48:S50"/>
-    <mergeCell ref="S33:S35"/>
-    <mergeCell ref="S36:S38"/>
-    <mergeCell ref="S39:S41"/>
-    <mergeCell ref="S42:S44"/>
-    <mergeCell ref="T33:W35"/>
-    <mergeCell ref="T36:W38"/>
-    <mergeCell ref="T39:W41"/>
-    <mergeCell ref="T42:W44"/>
+  <mergeCells count="233">
+    <mergeCell ref="B87:D110"/>
+    <mergeCell ref="A87:A110"/>
+    <mergeCell ref="E84:I86"/>
+    <mergeCell ref="J84:M86"/>
+    <mergeCell ref="N84:R86"/>
+    <mergeCell ref="S84:S86"/>
+    <mergeCell ref="T84:W86"/>
+    <mergeCell ref="X84:Z86"/>
+    <mergeCell ref="E81:I83"/>
+    <mergeCell ref="J81:M83"/>
+    <mergeCell ref="N81:R83"/>
+    <mergeCell ref="S81:S83"/>
+    <mergeCell ref="T81:W83"/>
+    <mergeCell ref="X81:Z83"/>
+    <mergeCell ref="E78:I80"/>
+    <mergeCell ref="J78:M80"/>
+    <mergeCell ref="N78:R80"/>
+    <mergeCell ref="S78:S80"/>
+    <mergeCell ref="T78:W80"/>
+    <mergeCell ref="X78:Z80"/>
+    <mergeCell ref="E75:I77"/>
+    <mergeCell ref="J75:M77"/>
+    <mergeCell ref="N75:R77"/>
+    <mergeCell ref="S75:S77"/>
+    <mergeCell ref="T75:W77"/>
+    <mergeCell ref="X75:Z77"/>
+    <mergeCell ref="E72:I74"/>
+    <mergeCell ref="J72:M74"/>
+    <mergeCell ref="N72:R74"/>
+    <mergeCell ref="S72:S74"/>
+    <mergeCell ref="T72:W74"/>
+    <mergeCell ref="X72:Z74"/>
+    <mergeCell ref="X66:Z68"/>
+    <mergeCell ref="E69:I71"/>
+    <mergeCell ref="J69:M71"/>
+    <mergeCell ref="N69:R71"/>
+    <mergeCell ref="S69:S71"/>
+    <mergeCell ref="T69:W71"/>
+    <mergeCell ref="X69:Z71"/>
+    <mergeCell ref="J63:M65"/>
+    <mergeCell ref="N63:R65"/>
+    <mergeCell ref="S63:S65"/>
+    <mergeCell ref="T63:W65"/>
+    <mergeCell ref="X63:Z65"/>
+    <mergeCell ref="E66:I68"/>
+    <mergeCell ref="J66:M68"/>
+    <mergeCell ref="N66:R68"/>
+    <mergeCell ref="S66:S68"/>
+    <mergeCell ref="T66:W68"/>
+    <mergeCell ref="A2:Z2"/>
+    <mergeCell ref="A60:A86"/>
+    <mergeCell ref="B60:D86"/>
+    <mergeCell ref="E60:I62"/>
+    <mergeCell ref="J60:M62"/>
+    <mergeCell ref="N60:R62"/>
+    <mergeCell ref="S60:S62"/>
+    <mergeCell ref="T60:W62"/>
+    <mergeCell ref="X60:Z62"/>
+    <mergeCell ref="E63:I65"/>
+    <mergeCell ref="B3:D14"/>
+    <mergeCell ref="A33:A59"/>
+    <mergeCell ref="N51:R53"/>
+    <mergeCell ref="N54:R56"/>
+    <mergeCell ref="N57:R59"/>
+    <mergeCell ref="E51:I53"/>
+    <mergeCell ref="E54:I56"/>
+    <mergeCell ref="E57:I59"/>
+    <mergeCell ref="X33:Z35"/>
+    <mergeCell ref="X36:Z38"/>
+    <mergeCell ref="X39:Z41"/>
+    <mergeCell ref="X42:Z44"/>
+    <mergeCell ref="E45:I47"/>
+    <mergeCell ref="E48:I50"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B15:D32"/>
     <mergeCell ref="B33:D59"/>
@@ -3655,77 +4430,142 @@
     <mergeCell ref="J57:M59"/>
     <mergeCell ref="N45:R47"/>
     <mergeCell ref="N48:R50"/>
-    <mergeCell ref="A2:Z2"/>
-    <mergeCell ref="A60:A86"/>
-    <mergeCell ref="B60:D86"/>
-    <mergeCell ref="E60:I62"/>
-    <mergeCell ref="J60:M62"/>
-    <mergeCell ref="N60:R62"/>
-    <mergeCell ref="S60:S62"/>
-    <mergeCell ref="T60:W62"/>
-    <mergeCell ref="X60:Z62"/>
-    <mergeCell ref="E63:I65"/>
-    <mergeCell ref="B3:D14"/>
-    <mergeCell ref="A33:A59"/>
-    <mergeCell ref="N51:R53"/>
-    <mergeCell ref="N54:R56"/>
-    <mergeCell ref="N57:R59"/>
-    <mergeCell ref="E51:I53"/>
-    <mergeCell ref="E54:I56"/>
-    <mergeCell ref="E57:I59"/>
-    <mergeCell ref="X33:Z35"/>
-    <mergeCell ref="X36:Z38"/>
-    <mergeCell ref="X39:Z41"/>
-    <mergeCell ref="X42:Z44"/>
-    <mergeCell ref="E45:I47"/>
-    <mergeCell ref="E48:I50"/>
-    <mergeCell ref="J63:M65"/>
-    <mergeCell ref="N63:R65"/>
-    <mergeCell ref="S63:S65"/>
-    <mergeCell ref="T63:W65"/>
-    <mergeCell ref="X63:Z65"/>
-    <mergeCell ref="E66:I68"/>
-    <mergeCell ref="J66:M68"/>
-    <mergeCell ref="N66:R68"/>
-    <mergeCell ref="S66:S68"/>
-    <mergeCell ref="T66:W68"/>
-    <mergeCell ref="E72:I74"/>
-    <mergeCell ref="J72:M74"/>
-    <mergeCell ref="N72:R74"/>
-    <mergeCell ref="S72:S74"/>
-    <mergeCell ref="T72:W74"/>
-    <mergeCell ref="X72:Z74"/>
-    <mergeCell ref="X66:Z68"/>
-    <mergeCell ref="E69:I71"/>
-    <mergeCell ref="J69:M71"/>
-    <mergeCell ref="N69:R71"/>
-    <mergeCell ref="S69:S71"/>
-    <mergeCell ref="T69:W71"/>
-    <mergeCell ref="X69:Z71"/>
-    <mergeCell ref="E78:I80"/>
-    <mergeCell ref="J78:M80"/>
-    <mergeCell ref="N78:R80"/>
-    <mergeCell ref="S78:S80"/>
-    <mergeCell ref="T78:W80"/>
-    <mergeCell ref="X78:Z80"/>
-    <mergeCell ref="E75:I77"/>
-    <mergeCell ref="J75:M77"/>
-    <mergeCell ref="N75:R77"/>
-    <mergeCell ref="S75:S77"/>
-    <mergeCell ref="T75:W77"/>
-    <mergeCell ref="X75:Z77"/>
-    <mergeCell ref="E84:I86"/>
-    <mergeCell ref="J84:M86"/>
-    <mergeCell ref="N84:R86"/>
-    <mergeCell ref="S84:S86"/>
-    <mergeCell ref="T84:W86"/>
-    <mergeCell ref="X84:Z86"/>
-    <mergeCell ref="E81:I83"/>
-    <mergeCell ref="J81:M83"/>
-    <mergeCell ref="N81:R83"/>
-    <mergeCell ref="S81:S83"/>
-    <mergeCell ref="T81:W83"/>
-    <mergeCell ref="X81:Z83"/>
+    <mergeCell ref="J45:M47"/>
+    <mergeCell ref="J48:M50"/>
+    <mergeCell ref="S45:S47"/>
+    <mergeCell ref="S48:S50"/>
+    <mergeCell ref="S33:S35"/>
+    <mergeCell ref="S36:S38"/>
+    <mergeCell ref="S39:S41"/>
+    <mergeCell ref="S42:S44"/>
+    <mergeCell ref="T33:W35"/>
+    <mergeCell ref="T36:W38"/>
+    <mergeCell ref="T39:W41"/>
+    <mergeCell ref="T42:W44"/>
+    <mergeCell ref="E42:I44"/>
+    <mergeCell ref="J42:M44"/>
+    <mergeCell ref="N33:R35"/>
+    <mergeCell ref="N36:R38"/>
+    <mergeCell ref="N39:R41"/>
+    <mergeCell ref="N42:R44"/>
+    <mergeCell ref="E33:I35"/>
+    <mergeCell ref="J33:M35"/>
+    <mergeCell ref="E36:I38"/>
+    <mergeCell ref="J36:M38"/>
+    <mergeCell ref="E39:I41"/>
+    <mergeCell ref="J39:M41"/>
+    <mergeCell ref="X27:Z29"/>
+    <mergeCell ref="X30:Z32"/>
+    <mergeCell ref="S27:S29"/>
+    <mergeCell ref="S30:S32"/>
+    <mergeCell ref="X21:Z23"/>
+    <mergeCell ref="T24:W26"/>
+    <mergeCell ref="X24:Z26"/>
+    <mergeCell ref="E27:I29"/>
+    <mergeCell ref="E30:I32"/>
+    <mergeCell ref="J27:M29"/>
+    <mergeCell ref="J30:M32"/>
+    <mergeCell ref="J24:M26"/>
+    <mergeCell ref="N21:R23"/>
+    <mergeCell ref="N24:R26"/>
+    <mergeCell ref="S21:S23"/>
+    <mergeCell ref="S24:S26"/>
+    <mergeCell ref="T21:W23"/>
+    <mergeCell ref="E24:I26"/>
+    <mergeCell ref="J21:M23"/>
+    <mergeCell ref="E15:I17"/>
+    <mergeCell ref="E18:I20"/>
+    <mergeCell ref="J15:M17"/>
+    <mergeCell ref="J18:M20"/>
+    <mergeCell ref="N27:R29"/>
+    <mergeCell ref="N30:R32"/>
+    <mergeCell ref="T27:W29"/>
+    <mergeCell ref="T30:W32"/>
+    <mergeCell ref="N15:R17"/>
+    <mergeCell ref="N18:R20"/>
+    <mergeCell ref="S15:S17"/>
+    <mergeCell ref="S18:S20"/>
+    <mergeCell ref="T15:W17"/>
+    <mergeCell ref="X15:Z17"/>
+    <mergeCell ref="T18:W20"/>
+    <mergeCell ref="X18:Z20"/>
+    <mergeCell ref="E21:I23"/>
+    <mergeCell ref="X6:Z8"/>
+    <mergeCell ref="N9:R11"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="T9:W11"/>
+    <mergeCell ref="X9:Z11"/>
+    <mergeCell ref="E6:I8"/>
+    <mergeCell ref="E9:I11"/>
+    <mergeCell ref="E12:I14"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="N3:R5"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="T3:W5"/>
+    <mergeCell ref="X3:Z5"/>
+    <mergeCell ref="J6:M8"/>
+    <mergeCell ref="N6:R8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:W8"/>
+    <mergeCell ref="J12:M14"/>
+    <mergeCell ref="N12:R14"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="T12:W14"/>
+    <mergeCell ref="X12:Z14"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="E3:I5"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="E87:I89"/>
+    <mergeCell ref="J87:M89"/>
+    <mergeCell ref="N87:R89"/>
+    <mergeCell ref="S87:S89"/>
+    <mergeCell ref="T87:W89"/>
+    <mergeCell ref="X87:Z89"/>
+    <mergeCell ref="E90:I92"/>
+    <mergeCell ref="J90:M92"/>
+    <mergeCell ref="N90:R92"/>
+    <mergeCell ref="S90:S92"/>
+    <mergeCell ref="T90:W92"/>
+    <mergeCell ref="X90:Z92"/>
+    <mergeCell ref="E93:I95"/>
+    <mergeCell ref="J93:M95"/>
+    <mergeCell ref="N93:R95"/>
+    <mergeCell ref="S93:S95"/>
+    <mergeCell ref="T93:W95"/>
+    <mergeCell ref="X93:Z95"/>
+    <mergeCell ref="E96:I98"/>
+    <mergeCell ref="J96:M98"/>
+    <mergeCell ref="N96:R98"/>
+    <mergeCell ref="S96:S98"/>
+    <mergeCell ref="T96:W98"/>
+    <mergeCell ref="X96:Z98"/>
+    <mergeCell ref="E99:I101"/>
+    <mergeCell ref="J99:M101"/>
+    <mergeCell ref="N99:R101"/>
+    <mergeCell ref="S99:S101"/>
+    <mergeCell ref="T99:W101"/>
+    <mergeCell ref="X99:Z101"/>
+    <mergeCell ref="E102:I104"/>
+    <mergeCell ref="J102:M104"/>
+    <mergeCell ref="N102:R104"/>
+    <mergeCell ref="S102:S104"/>
+    <mergeCell ref="T102:W104"/>
+    <mergeCell ref="X102:Z104"/>
+    <mergeCell ref="E105:I107"/>
+    <mergeCell ref="J105:M107"/>
+    <mergeCell ref="N105:R107"/>
+    <mergeCell ref="S105:S107"/>
+    <mergeCell ref="T105:W107"/>
+    <mergeCell ref="X105:Z107"/>
+    <mergeCell ref="E108:I110"/>
+    <mergeCell ref="J108:M110"/>
+    <mergeCell ref="N108:R110"/>
+    <mergeCell ref="S108:S110"/>
+    <mergeCell ref="T108:W110"/>
+    <mergeCell ref="X108:Z110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TC/TC.xlsx
+++ b/TC/TC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="124">
   <si>
     <t>Test №</t>
   </si>
@@ -340,6 +340,57 @@
   </si>
   <si>
     <t>Откроется меню выбора приложения для открытия данного типа ссылок</t>
+  </si>
+  <si>
+    <t>Проверка сохраения данных, введённых в форму</t>
+  </si>
+  <si>
+    <t>Заполнить любую форму и отправить</t>
+  </si>
+  <si>
+    <t>На почтовый адрес администратора приходит сообщение с введёнными данными</t>
+  </si>
+  <si>
+    <t>Проверка открытия плаката фильма на полный экран</t>
+  </si>
+  <si>
+    <t>Находиться на странице с фильмом</t>
+  </si>
+  <si>
+    <t>Откроется фото в полноэкранном режиме</t>
+  </si>
+  <si>
+    <t>Проверка перехода браузера в полноэкранный режим</t>
+  </si>
+  <si>
+    <t>Находиться на странице с фильмом и открытой в полный экран обложкой</t>
+  </si>
+  <si>
+    <t>Браузер перейдёт в полноэкранный режим</t>
+  </si>
+  <si>
+    <t>Проверка выхода браузера из полноэкранного режима</t>
+  </si>
+  <si>
+    <t>Кликнуть ЛКМ на плакат</t>
+  </si>
+  <si>
+    <t>Кликнуть ЛКМ на кнопку, отвечающую за полноэкранный режим</t>
+  </si>
+  <si>
+    <t>Находиться на странице с фильмом и открытой в полный экран обложкой + полноэкранный режим браузера</t>
+  </si>
+  <si>
+    <t>Браузер выйдет из полноэкранного режима</t>
+  </si>
+  <si>
+    <t>Проверка работоспособности системы расшаривания фото в социальные сети</t>
+  </si>
+  <si>
+    <t>Редирект на выбранную соц. сеть</t>
+  </si>
+  <si>
+    <t>Кликнуть ЛКМ на Share-кнопку и выбрать соц.сеть</t>
   </si>
 </sst>
 </file>
@@ -846,7 +897,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1026,6 +1077,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1345,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z233"/>
+  <dimension ref="A1:Z248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L242" sqref="L242"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8308,11 +8380,11 @@
       <c r="K230" s="39"/>
       <c r="L230" s="39"/>
       <c r="M230" s="40"/>
-      <c r="N230" s="62"/>
-      <c r="O230" s="62"/>
-      <c r="P230" s="62"/>
-      <c r="Q230" s="62"/>
-      <c r="R230" s="62"/>
+      <c r="N230" s="69"/>
+      <c r="O230" s="69"/>
+      <c r="P230" s="69"/>
+      <c r="Q230" s="69"/>
+      <c r="R230" s="69"/>
       <c r="S230" s="49"/>
       <c r="T230" s="41"/>
       <c r="U230" s="41"/>
@@ -8342,14 +8414,14 @@
       <c r="K231" s="53"/>
       <c r="L231" s="53"/>
       <c r="M231" s="53"/>
-      <c r="N231" s="64" t="s">
+      <c r="N231" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="O231" s="65"/>
-      <c r="P231" s="65"/>
-      <c r="Q231" s="65"/>
-      <c r="R231" s="66"/>
-      <c r="S231" s="60" t="s">
+      <c r="O231" s="72"/>
+      <c r="P231" s="72"/>
+      <c r="Q231" s="72"/>
+      <c r="R231" s="73"/>
+      <c r="S231" s="67" t="s">
         <v>41</v>
       </c>
       <c r="T231" s="47"/>
@@ -8374,12 +8446,12 @@
       <c r="K232" s="36"/>
       <c r="L232" s="36"/>
       <c r="M232" s="36"/>
-      <c r="N232" s="67"/>
-      <c r="O232" s="63"/>
-      <c r="P232" s="63"/>
-      <c r="Q232" s="63"/>
-      <c r="R232" s="68"/>
-      <c r="S232" s="61"/>
+      <c r="N232" s="74"/>
+      <c r="O232" s="70"/>
+      <c r="P232" s="70"/>
+      <c r="Q232" s="70"/>
+      <c r="R232" s="75"/>
+      <c r="S232" s="68"/>
       <c r="T232" s="41"/>
       <c r="U232" s="41"/>
       <c r="V232" s="41"/>
@@ -8402,12 +8474,12 @@
       <c r="K233" s="39"/>
       <c r="L233" s="39"/>
       <c r="M233" s="39"/>
-      <c r="N233" s="69"/>
-      <c r="O233" s="70"/>
-      <c r="P233" s="70"/>
-      <c r="Q233" s="70"/>
-      <c r="R233" s="71"/>
-      <c r="S233" s="61"/>
+      <c r="N233" s="76"/>
+      <c r="O233" s="77"/>
+      <c r="P233" s="77"/>
+      <c r="Q233" s="77"/>
+      <c r="R233" s="78"/>
+      <c r="S233" s="68"/>
       <c r="T233" s="41"/>
       <c r="U233" s="41"/>
       <c r="V233" s="41"/>
@@ -8416,10 +8488,528 @@
       <c r="Y233" s="9"/>
       <c r="Z233" s="9"/>
     </row>
+    <row r="234" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="55">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F234" s="11"/>
+      <c r="G234" s="11"/>
+      <c r="H234" s="11"/>
+      <c r="I234" s="11"/>
+      <c r="J234" s="52"/>
+      <c r="K234" s="53"/>
+      <c r="L234" s="53"/>
+      <c r="M234" s="53"/>
+      <c r="N234" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="O234" s="72"/>
+      <c r="P234" s="72"/>
+      <c r="Q234" s="72"/>
+      <c r="R234" s="73"/>
+      <c r="S234" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="T234" s="47"/>
+      <c r="U234" s="47"/>
+      <c r="V234" s="47"/>
+      <c r="W234" s="47"/>
+      <c r="X234" s="11"/>
+      <c r="Y234" s="11"/>
+      <c r="Z234" s="11"/>
+    </row>
+    <row r="235" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="50"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="57"/>
+      <c r="F235" s="9"/>
+      <c r="G235" s="9"/>
+      <c r="H235" s="9"/>
+      <c r="I235" s="9"/>
+      <c r="J235" s="35"/>
+      <c r="K235" s="36"/>
+      <c r="L235" s="36"/>
+      <c r="M235" s="36"/>
+      <c r="N235" s="74"/>
+      <c r="O235" s="70"/>
+      <c r="P235" s="70"/>
+      <c r="Q235" s="70"/>
+      <c r="R235" s="75"/>
+      <c r="S235" s="68"/>
+      <c r="T235" s="41"/>
+      <c r="U235" s="41"/>
+      <c r="V235" s="41"/>
+      <c r="W235" s="41"/>
+      <c r="X235" s="9"/>
+      <c r="Y235" s="9"/>
+      <c r="Z235" s="9"/>
+    </row>
+    <row r="236" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="51"/>
+      <c r="B236" s="7"/>
+      <c r="C236" s="7"/>
+      <c r="D236" s="7"/>
+      <c r="E236" s="57"/>
+      <c r="F236" s="9"/>
+      <c r="G236" s="9"/>
+      <c r="H236" s="9"/>
+      <c r="I236" s="9"/>
+      <c r="J236" s="38"/>
+      <c r="K236" s="39"/>
+      <c r="L236" s="39"/>
+      <c r="M236" s="39"/>
+      <c r="N236" s="76"/>
+      <c r="O236" s="77"/>
+      <c r="P236" s="77"/>
+      <c r="Q236" s="77"/>
+      <c r="R236" s="78"/>
+      <c r="S236" s="68"/>
+      <c r="T236" s="41"/>
+      <c r="U236" s="41"/>
+      <c r="V236" s="41"/>
+      <c r="W236" s="41"/>
+      <c r="X236" s="9"/>
+      <c r="Y236" s="9"/>
+      <c r="Z236" s="9"/>
+    </row>
+    <row r="237" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="55">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="F237" s="11"/>
+      <c r="G237" s="11"/>
+      <c r="H237" s="11"/>
+      <c r="I237" s="11"/>
+      <c r="J237" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="K237" s="53"/>
+      <c r="L237" s="53"/>
+      <c r="M237" s="53"/>
+      <c r="N237" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="O237" s="72"/>
+      <c r="P237" s="72"/>
+      <c r="Q237" s="72"/>
+      <c r="R237" s="73"/>
+      <c r="S237" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="T237" s="47"/>
+      <c r="U237" s="47"/>
+      <c r="V237" s="47"/>
+      <c r="W237" s="47"/>
+      <c r="X237" s="11"/>
+      <c r="Y237" s="11"/>
+      <c r="Z237" s="11"/>
+    </row>
+    <row r="238" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="50"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="57"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="9"/>
+      <c r="H238" s="9"/>
+      <c r="I238" s="9"/>
+      <c r="J238" s="35"/>
+      <c r="K238" s="36"/>
+      <c r="L238" s="36"/>
+      <c r="M238" s="36"/>
+      <c r="N238" s="74"/>
+      <c r="O238" s="70"/>
+      <c r="P238" s="70"/>
+      <c r="Q238" s="70"/>
+      <c r="R238" s="75"/>
+      <c r="S238" s="68"/>
+      <c r="T238" s="41"/>
+      <c r="U238" s="41"/>
+      <c r="V238" s="41"/>
+      <c r="W238" s="41"/>
+      <c r="X238" s="9"/>
+      <c r="Y238" s="9"/>
+      <c r="Z238" s="9"/>
+    </row>
+    <row r="239" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="51"/>
+      <c r="B239" s="7"/>
+      <c r="C239" s="7"/>
+      <c r="D239" s="7"/>
+      <c r="E239" s="57"/>
+      <c r="F239" s="9"/>
+      <c r="G239" s="9"/>
+      <c r="H239" s="9"/>
+      <c r="I239" s="9"/>
+      <c r="J239" s="38"/>
+      <c r="K239" s="39"/>
+      <c r="L239" s="39"/>
+      <c r="M239" s="39"/>
+      <c r="N239" s="76"/>
+      <c r="O239" s="77"/>
+      <c r="P239" s="77"/>
+      <c r="Q239" s="77"/>
+      <c r="R239" s="78"/>
+      <c r="S239" s="68"/>
+      <c r="T239" s="41"/>
+      <c r="U239" s="41"/>
+      <c r="V239" s="41"/>
+      <c r="W239" s="41"/>
+      <c r="X239" s="9"/>
+      <c r="Y239" s="9"/>
+      <c r="Z239" s="9"/>
+    </row>
+    <row r="240" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="55">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F240" s="60"/>
+      <c r="G240" s="60"/>
+      <c r="H240" s="60"/>
+      <c r="I240" s="61"/>
+      <c r="J240" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="K240" s="53"/>
+      <c r="L240" s="53"/>
+      <c r="M240" s="53"/>
+      <c r="N240" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="O240" s="72"/>
+      <c r="P240" s="72"/>
+      <c r="Q240" s="72"/>
+      <c r="R240" s="73"/>
+      <c r="S240" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="T240" s="47"/>
+      <c r="U240" s="47"/>
+      <c r="V240" s="47"/>
+      <c r="W240" s="47"/>
+      <c r="X240" s="11"/>
+      <c r="Y240" s="11"/>
+      <c r="Z240" s="11"/>
+    </row>
+    <row r="241" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="50"/>
+      <c r="B241" s="6"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="62"/>
+      <c r="F241" s="63"/>
+      <c r="G241" s="63"/>
+      <c r="H241" s="63"/>
+      <c r="I241" s="64"/>
+      <c r="J241" s="35"/>
+      <c r="K241" s="36"/>
+      <c r="L241" s="36"/>
+      <c r="M241" s="36"/>
+      <c r="N241" s="74"/>
+      <c r="O241" s="70"/>
+      <c r="P241" s="70"/>
+      <c r="Q241" s="70"/>
+      <c r="R241" s="75"/>
+      <c r="S241" s="68"/>
+      <c r="T241" s="41"/>
+      <c r="U241" s="41"/>
+      <c r="V241" s="41"/>
+      <c r="W241" s="41"/>
+      <c r="X241" s="9"/>
+      <c r="Y241" s="9"/>
+      <c r="Z241" s="9"/>
+    </row>
+    <row r="242" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="51"/>
+      <c r="B242" s="7"/>
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="65"/>
+      <c r="F242" s="66"/>
+      <c r="G242" s="66"/>
+      <c r="H242" s="66"/>
+      <c r="I242" s="56"/>
+      <c r="J242" s="38"/>
+      <c r="K242" s="39"/>
+      <c r="L242" s="39"/>
+      <c r="M242" s="39"/>
+      <c r="N242" s="76"/>
+      <c r="O242" s="77"/>
+      <c r="P242" s="77"/>
+      <c r="Q242" s="77"/>
+      <c r="R242" s="78"/>
+      <c r="S242" s="68"/>
+      <c r="T242" s="41"/>
+      <c r="U242" s="41"/>
+      <c r="V242" s="41"/>
+      <c r="W242" s="41"/>
+      <c r="X242" s="9"/>
+      <c r="Y242" s="9"/>
+      <c r="Z242" s="9"/>
+    </row>
+    <row r="243" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="55">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F243" s="60"/>
+      <c r="G243" s="60"/>
+      <c r="H243" s="60"/>
+      <c r="I243" s="61"/>
+      <c r="J243" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="K243" s="53"/>
+      <c r="L243" s="53"/>
+      <c r="M243" s="53"/>
+      <c r="N243" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="O243" s="72"/>
+      <c r="P243" s="72"/>
+      <c r="Q243" s="72"/>
+      <c r="R243" s="73"/>
+      <c r="S243" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="T243" s="47"/>
+      <c r="U243" s="47"/>
+      <c r="V243" s="47"/>
+      <c r="W243" s="47"/>
+      <c r="X243" s="11"/>
+      <c r="Y243" s="11"/>
+      <c r="Z243" s="11"/>
+    </row>
+    <row r="244" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="50"/>
+      <c r="B244" s="6"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="62"/>
+      <c r="F244" s="63"/>
+      <c r="G244" s="63"/>
+      <c r="H244" s="63"/>
+      <c r="I244" s="64"/>
+      <c r="J244" s="35"/>
+      <c r="K244" s="36"/>
+      <c r="L244" s="36"/>
+      <c r="M244" s="36"/>
+      <c r="N244" s="74"/>
+      <c r="O244" s="70"/>
+      <c r="P244" s="70"/>
+      <c r="Q244" s="70"/>
+      <c r="R244" s="75"/>
+      <c r="S244" s="68"/>
+      <c r="T244" s="41"/>
+      <c r="U244" s="41"/>
+      <c r="V244" s="41"/>
+      <c r="W244" s="41"/>
+      <c r="X244" s="9"/>
+      <c r="Y244" s="9"/>
+      <c r="Z244" s="9"/>
+    </row>
+    <row r="245" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="51"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="7"/>
+      <c r="D245" s="7"/>
+      <c r="E245" s="65"/>
+      <c r="F245" s="66"/>
+      <c r="G245" s="66"/>
+      <c r="H245" s="66"/>
+      <c r="I245" s="56"/>
+      <c r="J245" s="38"/>
+      <c r="K245" s="39"/>
+      <c r="L245" s="39"/>
+      <c r="M245" s="39"/>
+      <c r="N245" s="76"/>
+      <c r="O245" s="77"/>
+      <c r="P245" s="77"/>
+      <c r="Q245" s="77"/>
+      <c r="R245" s="78"/>
+      <c r="S245" s="68"/>
+      <c r="T245" s="41"/>
+      <c r="U245" s="41"/>
+      <c r="V245" s="41"/>
+      <c r="W245" s="41"/>
+      <c r="X245" s="9"/>
+      <c r="Y245" s="9"/>
+      <c r="Z245" s="9"/>
+    </row>
+    <row r="246" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="55">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="B246" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C246" s="53"/>
+      <c r="D246" s="54"/>
+      <c r="E246" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F246" s="60"/>
+      <c r="G246" s="60"/>
+      <c r="H246" s="60"/>
+      <c r="I246" s="61"/>
+      <c r="J246" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="K246" s="53"/>
+      <c r="L246" s="53"/>
+      <c r="M246" s="53"/>
+      <c r="N246" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="O246" s="47"/>
+      <c r="P246" s="47"/>
+      <c r="Q246" s="47"/>
+      <c r="R246" s="47"/>
+      <c r="S246" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="T246" s="47"/>
+      <c r="U246" s="47"/>
+      <c r="V246" s="47"/>
+      <c r="W246" s="47"/>
+      <c r="X246" s="11"/>
+      <c r="Y246" s="11"/>
+      <c r="Z246" s="11"/>
+    </row>
+    <row r="247" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="50"/>
+      <c r="B247" s="35"/>
+      <c r="C247" s="36"/>
+      <c r="D247" s="37"/>
+      <c r="E247" s="62"/>
+      <c r="F247" s="63"/>
+      <c r="G247" s="63"/>
+      <c r="H247" s="63"/>
+      <c r="I247" s="64"/>
+      <c r="J247" s="35"/>
+      <c r="K247" s="36"/>
+      <c r="L247" s="36"/>
+      <c r="M247" s="36"/>
+      <c r="N247" s="41"/>
+      <c r="O247" s="41"/>
+      <c r="P247" s="41"/>
+      <c r="Q247" s="41"/>
+      <c r="R247" s="41"/>
+      <c r="S247" s="49"/>
+      <c r="T247" s="41"/>
+      <c r="U247" s="41"/>
+      <c r="V247" s="41"/>
+      <c r="W247" s="41"/>
+      <c r="X247" s="9"/>
+      <c r="Y247" s="9"/>
+      <c r="Z247" s="9"/>
+    </row>
+    <row r="248" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="51"/>
+      <c r="B248" s="38"/>
+      <c r="C248" s="39"/>
+      <c r="D248" s="40"/>
+      <c r="E248" s="65"/>
+      <c r="F248" s="66"/>
+      <c r="G248" s="66"/>
+      <c r="H248" s="66"/>
+      <c r="I248" s="56"/>
+      <c r="J248" s="38"/>
+      <c r="K248" s="39"/>
+      <c r="L248" s="39"/>
+      <c r="M248" s="39"/>
+      <c r="N248" s="41"/>
+      <c r="O248" s="41"/>
+      <c r="P248" s="41"/>
+      <c r="Q248" s="41"/>
+      <c r="R248" s="41"/>
+      <c r="S248" s="49"/>
+      <c r="T248" s="41"/>
+      <c r="U248" s="41"/>
+      <c r="V248" s="41"/>
+      <c r="W248" s="41"/>
+      <c r="X248" s="9"/>
+      <c r="Y248" s="9"/>
+      <c r="Z248" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="493">
+  <mergeCells count="533">
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="B243:D245"/>
+    <mergeCell ref="B246:D248"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="B240:D242"/>
+    <mergeCell ref="E240:I242"/>
+    <mergeCell ref="J240:M242"/>
+    <mergeCell ref="N240:R242"/>
+    <mergeCell ref="S240:S242"/>
+    <mergeCell ref="T240:W242"/>
+    <mergeCell ref="X240:Z242"/>
+    <mergeCell ref="E243:I245"/>
+    <mergeCell ref="J243:M245"/>
+    <mergeCell ref="N243:R245"/>
+    <mergeCell ref="S243:S245"/>
+    <mergeCell ref="T243:W245"/>
+    <mergeCell ref="X243:Z245"/>
+    <mergeCell ref="E246:I248"/>
+    <mergeCell ref="J246:M248"/>
+    <mergeCell ref="N246:R248"/>
+    <mergeCell ref="S246:S248"/>
+    <mergeCell ref="T246:W248"/>
+    <mergeCell ref="X246:Z248"/>
+    <mergeCell ref="E237:I239"/>
+    <mergeCell ref="J237:M239"/>
+    <mergeCell ref="N237:R239"/>
+    <mergeCell ref="S237:S239"/>
+    <mergeCell ref="T237:W239"/>
+    <mergeCell ref="X237:Z239"/>
     <mergeCell ref="A231:A233"/>
     <mergeCell ref="B231:D233"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="B234:D236"/>
+    <mergeCell ref="A237:A239"/>
+    <mergeCell ref="B237:D239"/>
+    <mergeCell ref="X234:Z236"/>
+    <mergeCell ref="T234:W236"/>
+    <mergeCell ref="S234:S236"/>
+    <mergeCell ref="N234:R236"/>
+    <mergeCell ref="J234:M236"/>
+    <mergeCell ref="E234:I236"/>
     <mergeCell ref="X231:Z233"/>
     <mergeCell ref="T231:W233"/>
     <mergeCell ref="S231:S233"/>

--- a/TC/TC.xlsx
+++ b/TC/TC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="134">
   <si>
     <t>Test №</t>
   </si>
@@ -391,6 +391,36 @@
   </si>
   <si>
     <t>Кликнуть ЛКМ на Share-кнопку и выбрать соц.сеть</t>
+  </si>
+  <si>
+    <t>Смахнуть плакат вверх, вниз, или нажать крестик</t>
+  </si>
+  <si>
+    <t>Откроется страница с фильмом</t>
+  </si>
+  <si>
+    <t>Проверка сворачивания плаката фильма из режима полного экрана</t>
+  </si>
+  <si>
+    <t>Проверка функционала интегрированной Яндекс.карты</t>
+  </si>
+  <si>
+    <t>Реакция в соответсвии с сайтом maps.yandex.ru</t>
+  </si>
+  <si>
+    <t>Манипуляция картой, использование кнопок и ползунков</t>
+  </si>
+  <si>
+    <t>Переход на страницу с оформлением заказа через ссылку на главной странице</t>
+  </si>
+  <si>
+    <t>Прокрутить главную страницу в самый низ и нажать кнопку "Заказать зал"</t>
+  </si>
+  <si>
+    <t>Находиться на главной странице</t>
+  </si>
+  <si>
+    <t>Переход на страницу с оформлением заказа</t>
   </si>
 </sst>
 </file>
@@ -1417,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z248"/>
+  <dimension ref="A1:Z257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D252" sqref="D252"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N258" sqref="N258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8966,12 +8996,324 @@
       <c r="Y248" s="9"/>
       <c r="Z248" s="9"/>
     </row>
+    <row r="249" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="55">
+        <v>1.17</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="F249" s="11"/>
+      <c r="G249" s="11"/>
+      <c r="H249" s="11"/>
+      <c r="I249" s="11"/>
+      <c r="J249" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="K249" s="53"/>
+      <c r="L249" s="53"/>
+      <c r="M249" s="53"/>
+      <c r="N249" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="O249" s="72"/>
+      <c r="P249" s="72"/>
+      <c r="Q249" s="72"/>
+      <c r="R249" s="73"/>
+      <c r="S249" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="T249" s="47"/>
+      <c r="U249" s="47"/>
+      <c r="V249" s="47"/>
+      <c r="W249" s="47"/>
+      <c r="X249" s="11"/>
+      <c r="Y249" s="11"/>
+      <c r="Z249" s="11"/>
+    </row>
+    <row r="250" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="50"/>
+      <c r="B250" s="6"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="57"/>
+      <c r="F250" s="9"/>
+      <c r="G250" s="9"/>
+      <c r="H250" s="9"/>
+      <c r="I250" s="9"/>
+      <c r="J250" s="35"/>
+      <c r="K250" s="36"/>
+      <c r="L250" s="36"/>
+      <c r="M250" s="36"/>
+      <c r="N250" s="74"/>
+      <c r="O250" s="70"/>
+      <c r="P250" s="70"/>
+      <c r="Q250" s="70"/>
+      <c r="R250" s="75"/>
+      <c r="S250" s="68"/>
+      <c r="T250" s="41"/>
+      <c r="U250" s="41"/>
+      <c r="V250" s="41"/>
+      <c r="W250" s="41"/>
+      <c r="X250" s="9"/>
+      <c r="Y250" s="9"/>
+      <c r="Z250" s="9"/>
+    </row>
+    <row r="251" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="51"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="57"/>
+      <c r="F251" s="9"/>
+      <c r="G251" s="9"/>
+      <c r="H251" s="9"/>
+      <c r="I251" s="9"/>
+      <c r="J251" s="38"/>
+      <c r="K251" s="39"/>
+      <c r="L251" s="39"/>
+      <c r="M251" s="39"/>
+      <c r="N251" s="76"/>
+      <c r="O251" s="77"/>
+      <c r="P251" s="77"/>
+      <c r="Q251" s="77"/>
+      <c r="R251" s="78"/>
+      <c r="S251" s="68"/>
+      <c r="T251" s="41"/>
+      <c r="U251" s="41"/>
+      <c r="V251" s="41"/>
+      <c r="W251" s="41"/>
+      <c r="X251" s="9"/>
+      <c r="Y251" s="9"/>
+      <c r="Z251" s="9"/>
+    </row>
+    <row r="252" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="55">
+        <v>1.18</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
+      <c r="E252" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="F252" s="11"/>
+      <c r="G252" s="11"/>
+      <c r="H252" s="11"/>
+      <c r="I252" s="11"/>
+      <c r="J252" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="K252" s="53"/>
+      <c r="L252" s="53"/>
+      <c r="M252" s="53"/>
+      <c r="N252" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="O252" s="72"/>
+      <c r="P252" s="72"/>
+      <c r="Q252" s="72"/>
+      <c r="R252" s="73"/>
+      <c r="S252" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="T252" s="47"/>
+      <c r="U252" s="47"/>
+      <c r="V252" s="47"/>
+      <c r="W252" s="47"/>
+      <c r="X252" s="11"/>
+      <c r="Y252" s="11"/>
+      <c r="Z252" s="11"/>
+    </row>
+    <row r="253" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="50"/>
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="57"/>
+      <c r="F253" s="9"/>
+      <c r="G253" s="9"/>
+      <c r="H253" s="9"/>
+      <c r="I253" s="9"/>
+      <c r="J253" s="35"/>
+      <c r="K253" s="36"/>
+      <c r="L253" s="36"/>
+      <c r="M253" s="36"/>
+      <c r="N253" s="74"/>
+      <c r="O253" s="70"/>
+      <c r="P253" s="70"/>
+      <c r="Q253" s="70"/>
+      <c r="R253" s="75"/>
+      <c r="S253" s="68"/>
+      <c r="T253" s="41"/>
+      <c r="U253" s="41"/>
+      <c r="V253" s="41"/>
+      <c r="W253" s="41"/>
+      <c r="X253" s="9"/>
+      <c r="Y253" s="9"/>
+      <c r="Z253" s="9"/>
+    </row>
+    <row r="254" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="51"/>
+      <c r="B254" s="7"/>
+      <c r="C254" s="7"/>
+      <c r="D254" s="7"/>
+      <c r="E254" s="57"/>
+      <c r="F254" s="9"/>
+      <c r="G254" s="9"/>
+      <c r="H254" s="9"/>
+      <c r="I254" s="9"/>
+      <c r="J254" s="38"/>
+      <c r="K254" s="39"/>
+      <c r="L254" s="39"/>
+      <c r="M254" s="39"/>
+      <c r="N254" s="76"/>
+      <c r="O254" s="77"/>
+      <c r="P254" s="77"/>
+      <c r="Q254" s="77"/>
+      <c r="R254" s="78"/>
+      <c r="S254" s="68"/>
+      <c r="T254" s="41"/>
+      <c r="U254" s="41"/>
+      <c r="V254" s="41"/>
+      <c r="W254" s="41"/>
+      <c r="X254" s="9"/>
+      <c r="Y254" s="9"/>
+      <c r="Z254" s="9"/>
+    </row>
+    <row r="255" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="55">
+        <v>1.19</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="F255" s="11"/>
+      <c r="G255" s="11"/>
+      <c r="H255" s="11"/>
+      <c r="I255" s="11"/>
+      <c r="J255" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="K255" s="53"/>
+      <c r="L255" s="53"/>
+      <c r="M255" s="53"/>
+      <c r="N255" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="O255" s="72"/>
+      <c r="P255" s="72"/>
+      <c r="Q255" s="72"/>
+      <c r="R255" s="73"/>
+      <c r="S255" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="T255" s="47"/>
+      <c r="U255" s="47"/>
+      <c r="V255" s="47"/>
+      <c r="W255" s="47"/>
+      <c r="X255" s="11"/>
+      <c r="Y255" s="11"/>
+      <c r="Z255" s="11"/>
+    </row>
+    <row r="256" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="50"/>
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="57"/>
+      <c r="F256" s="9"/>
+      <c r="G256" s="9"/>
+      <c r="H256" s="9"/>
+      <c r="I256" s="9"/>
+      <c r="J256" s="35"/>
+      <c r="K256" s="36"/>
+      <c r="L256" s="36"/>
+      <c r="M256" s="36"/>
+      <c r="N256" s="74"/>
+      <c r="O256" s="70"/>
+      <c r="P256" s="70"/>
+      <c r="Q256" s="70"/>
+      <c r="R256" s="75"/>
+      <c r="S256" s="68"/>
+      <c r="T256" s="41"/>
+      <c r="U256" s="41"/>
+      <c r="V256" s="41"/>
+      <c r="W256" s="41"/>
+      <c r="X256" s="9"/>
+      <c r="Y256" s="9"/>
+      <c r="Z256" s="9"/>
+    </row>
+    <row r="257" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="51"/>
+      <c r="B257" s="7"/>
+      <c r="C257" s="7"/>
+      <c r="D257" s="7"/>
+      <c r="E257" s="57"/>
+      <c r="F257" s="9"/>
+      <c r="G257" s="9"/>
+      <c r="H257" s="9"/>
+      <c r="I257" s="9"/>
+      <c r="J257" s="38"/>
+      <c r="K257" s="39"/>
+      <c r="L257" s="39"/>
+      <c r="M257" s="39"/>
+      <c r="N257" s="76"/>
+      <c r="O257" s="77"/>
+      <c r="P257" s="77"/>
+      <c r="Q257" s="77"/>
+      <c r="R257" s="78"/>
+      <c r="S257" s="68"/>
+      <c r="T257" s="41"/>
+      <c r="U257" s="41"/>
+      <c r="V257" s="41"/>
+      <c r="W257" s="41"/>
+      <c r="X257" s="9"/>
+      <c r="Y257" s="9"/>
+      <c r="Z257" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="533">
+  <mergeCells count="557">
+    <mergeCell ref="A255:A257"/>
+    <mergeCell ref="B255:D257"/>
+    <mergeCell ref="E255:I257"/>
+    <mergeCell ref="J255:M257"/>
+    <mergeCell ref="N255:R257"/>
+    <mergeCell ref="S255:S257"/>
+    <mergeCell ref="T255:W257"/>
+    <mergeCell ref="X255:Z257"/>
+    <mergeCell ref="N249:R251"/>
+    <mergeCell ref="S249:S251"/>
+    <mergeCell ref="T249:W251"/>
+    <mergeCell ref="X249:Z251"/>
     <mergeCell ref="A243:A245"/>
     <mergeCell ref="B243:D245"/>
+    <mergeCell ref="E252:I254"/>
+    <mergeCell ref="J252:M254"/>
+    <mergeCell ref="N252:R254"/>
+    <mergeCell ref="S252:S254"/>
+    <mergeCell ref="T252:W254"/>
+    <mergeCell ref="X252:Z254"/>
     <mergeCell ref="B246:D248"/>
     <mergeCell ref="A246:A248"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="B249:D251"/>
+    <mergeCell ref="E249:I251"/>
+    <mergeCell ref="J249:M251"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="B252:D254"/>
     <mergeCell ref="A240:A242"/>
     <mergeCell ref="B240:D242"/>
     <mergeCell ref="E240:I242"/>

--- a/TC/TC.xlsx
+++ b/TC/TC.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="154">
   <si>
     <t>Test №</t>
   </si>
@@ -421,6 +421,66 @@
   </si>
   <si>
     <t>Переход на страницу с оформлением заказа</t>
+  </si>
+  <si>
+    <t>Проверка работоспособности ссылки на главную страницу в шапке</t>
+  </si>
+  <si>
+    <t>Нажать на логотип сайта в шапке</t>
+  </si>
+  <si>
+    <t>Откроется главная страница</t>
+  </si>
+  <si>
+    <t>Курсор должен быть не на этой ссылке</t>
+  </si>
+  <si>
+    <t>Курсор должен быть на этой ссылке</t>
+  </si>
+  <si>
+    <t>Ввести данные во всех обязательных формах</t>
+  </si>
+  <si>
+    <t>Ввести данные не во всех обязательных формах</t>
+  </si>
+  <si>
+    <t>Находиться на странице "О нас"</t>
+  </si>
+  <si>
+    <t>Находиться на странице "Оставить отзыв"</t>
+  </si>
+  <si>
+    <t>Находиться на странице с результатами поиска</t>
+  </si>
+  <si>
+    <t>Находиться на странице с формой написания отзыва</t>
+  </si>
+  <si>
+    <t>Находиться на странице "Фильмы"</t>
+  </si>
+  <si>
+    <t>Всплывающее окно</t>
+  </si>
+  <si>
+    <t>Находиться на странице с фильмами выбранного жанра</t>
+  </si>
+  <si>
+    <t>Страница с корзиной</t>
+  </si>
+  <si>
+    <t>Страница с корзиной, кликабельная кнопка</t>
+  </si>
+  <si>
+    <t>Страница с оформлением покупки</t>
+  </si>
+  <si>
+    <t>Наличие интернет-соединения и современного браузера</t>
+  </si>
+  <si>
+    <t>Открытая страница ввода пароля</t>
+  </si>
+  <si>
+    <t>Находиться на странице с любой формой</t>
   </si>
 </sst>
 </file>
@@ -927,7 +987,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1082,6 +1142,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1447,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z257"/>
+  <dimension ref="A1:Z260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N258" sqref="N258"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J237" sqref="J237:M239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1920,7 +1983,9 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -2010,7 +2075,9 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
@@ -2100,7 +2167,9 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="J21" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -2190,7 +2259,9 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="J24" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -2280,7 +2351,9 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="J27" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
@@ -2370,7 +2443,9 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="J30" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
@@ -2464,7 +2539,9 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="J33" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -2554,7 +2631,9 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+      <c r="J36" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
@@ -2644,7 +2723,9 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+      <c r="J39" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
@@ -2734,7 +2815,9 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
+      <c r="J42" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
@@ -2824,7 +2907,9 @@
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
+      <c r="J45" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
@@ -2914,7 +2999,9 @@
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
+      <c r="J48" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
@@ -3004,7 +3091,9 @@
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
+      <c r="J51" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
@@ -3094,7 +3183,9 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
+      <c r="J54" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -3184,7 +3275,9 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
+      <c r="J57" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
@@ -3262,7 +3355,7 @@
       <c r="Y59" s="9"/>
       <c r="Z59" s="9"/>
     </row>
-    <row r="60" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>1.4</v>
       </c>
@@ -3278,7 +3371,9 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
+      <c r="J60" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -3368,7 +3463,9 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
+      <c r="J63" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
@@ -3458,7 +3555,9 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
+      <c r="J66" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
@@ -3548,7 +3647,9 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
+      <c r="J69" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
@@ -3638,7 +3739,9 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
+      <c r="J72" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
@@ -3728,7 +3831,9 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
+      <c r="J75" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
@@ -3818,7 +3923,9 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
+      <c r="J78" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
@@ -3908,7 +4015,9 @@
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
+      <c r="J81" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
@@ -3998,7 +4107,9 @@
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
+      <c r="J84" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
@@ -4092,7 +4203,9 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
+      <c r="J87" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
@@ -4182,7 +4295,9 @@
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
+      <c r="J90" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
@@ -4272,7 +4387,9 @@
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
+      <c r="J93" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
@@ -4362,7 +4479,9 @@
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
+      <c r="J96" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
@@ -4452,7 +4571,9 @@
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
+      <c r="J99" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
       <c r="M99" s="9"/>
@@ -4542,7 +4663,9 @@
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
+      <c r="J102" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
@@ -4632,7 +4755,9 @@
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
+      <c r="J105" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
@@ -4722,7 +4847,9 @@
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
+      <c r="J108" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
@@ -4816,7 +4943,9 @@
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
-      <c r="J111" s="9"/>
+      <c r="J111" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
       <c r="M111" s="9"/>
@@ -4906,7 +5035,9 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
+      <c r="J114" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
       <c r="M114" s="9"/>
@@ -4996,7 +5127,9 @@
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
+      <c r="J117" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
       <c r="M117" s="9"/>
@@ -5086,7 +5219,9 @@
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
+      <c r="J120" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
       <c r="M120" s="9"/>
@@ -5176,7 +5311,9 @@
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
+      <c r="J123" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
       <c r="M123" s="9"/>
@@ -5270,7 +5407,9 @@
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
+      <c r="J126" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
       <c r="M126" s="9"/>
@@ -5360,7 +5499,9 @@
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
-      <c r="J129" s="9"/>
+      <c r="J129" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
       <c r="M129" s="9"/>
@@ -5450,7 +5591,9 @@
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
+      <c r="J132" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
       <c r="M132" s="9"/>
@@ -5544,7 +5687,9 @@
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="9"/>
+      <c r="J135" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
       <c r="M135" s="9"/>
@@ -5634,7 +5779,9 @@
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
-      <c r="J138" s="9"/>
+      <c r="J138" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="K138" s="9"/>
       <c r="L138" s="9"/>
       <c r="M138" s="9"/>
@@ -5724,7 +5871,9 @@
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
       <c r="I141" s="9"/>
-      <c r="J141" s="9"/>
+      <c r="J141" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="K141" s="9"/>
       <c r="L141" s="9"/>
       <c r="M141" s="9"/>
@@ -5814,7 +5963,9 @@
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
-      <c r="J144" s="9"/>
+      <c r="J144" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
       <c r="M144" s="9"/>
@@ -5904,7 +6055,9 @@
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
       <c r="I147" s="9"/>
-      <c r="J147" s="9"/>
+      <c r="J147" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="K147" s="9"/>
       <c r="L147" s="9"/>
       <c r="M147" s="9"/>
@@ -5994,7 +6147,9 @@
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
       <c r="I150" s="9"/>
-      <c r="J150" s="9"/>
+      <c r="J150" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="K150" s="9"/>
       <c r="L150" s="9"/>
       <c r="M150" s="9"/>
@@ -6084,7 +6239,9 @@
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
       <c r="I153" s="9"/>
-      <c r="J153" s="9"/>
+      <c r="J153" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
       <c r="M153" s="9"/>
@@ -6174,7 +6331,9 @@
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
       <c r="I156" s="9"/>
-      <c r="J156" s="9"/>
+      <c r="J156" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
       <c r="M156" s="9"/>
@@ -6264,7 +6423,9 @@
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
       <c r="I159" s="9"/>
-      <c r="J159" s="9"/>
+      <c r="J159" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
       <c r="M159" s="9"/>
@@ -6354,7 +6515,9 @@
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
       <c r="I162" s="9"/>
-      <c r="J162" s="9"/>
+      <c r="J162" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
       <c r="M162" s="9"/>
@@ -6444,7 +6607,9 @@
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
       <c r="I165" s="9"/>
-      <c r="J165" s="9"/>
+      <c r="J165" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
       <c r="M165" s="9"/>
@@ -6534,7 +6699,9 @@
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
       <c r="I168" s="9"/>
-      <c r="J168" s="9"/>
+      <c r="J168" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="K168" s="9"/>
       <c r="L168" s="9"/>
       <c r="M168" s="9"/>
@@ -6628,7 +6795,9 @@
       <c r="G171" s="11"/>
       <c r="H171" s="11"/>
       <c r="I171" s="11"/>
-      <c r="J171" s="9"/>
+      <c r="J171" s="8" t="s">
+        <v>100</v>
+      </c>
       <c r="K171" s="9"/>
       <c r="L171" s="9"/>
       <c r="M171" s="9"/>
@@ -6718,7 +6887,9 @@
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
       <c r="I174" s="9"/>
-      <c r="J174" s="9"/>
+      <c r="J174" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="K174" s="9"/>
       <c r="L174" s="9"/>
       <c r="M174" s="9"/>
@@ -6808,7 +6979,9 @@
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
       <c r="I177" s="9"/>
-      <c r="J177" s="9"/>
+      <c r="J177" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="K177" s="9"/>
       <c r="L177" s="9"/>
       <c r="M177" s="9"/>
@@ -6898,7 +7071,9 @@
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
       <c r="I180" s="9"/>
-      <c r="J180" s="9"/>
+      <c r="J180" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="K180" s="9"/>
       <c r="L180" s="9"/>
       <c r="M180" s="9"/>
@@ -6988,7 +7163,9 @@
       <c r="G183" s="9"/>
       <c r="H183" s="9"/>
       <c r="I183" s="9"/>
-      <c r="J183" s="9"/>
+      <c r="J183" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="K183" s="9"/>
       <c r="L183" s="9"/>
       <c r="M183" s="9"/>
@@ -7078,7 +7255,9 @@
       <c r="G186" s="9"/>
       <c r="H186" s="9"/>
       <c r="I186" s="9"/>
-      <c r="J186" s="9"/>
+      <c r="J186" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="K186" s="9"/>
       <c r="L186" s="9"/>
       <c r="M186" s="9"/>
@@ -7168,7 +7347,9 @@
       <c r="G189" s="9"/>
       <c r="H189" s="9"/>
       <c r="I189" s="9"/>
-      <c r="J189" s="9"/>
+      <c r="J189" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="K189" s="9"/>
       <c r="L189" s="9"/>
       <c r="M189" s="9"/>
@@ -7258,7 +7439,9 @@
       <c r="G192" s="9"/>
       <c r="H192" s="9"/>
       <c r="I192" s="9"/>
-      <c r="J192" s="9"/>
+      <c r="J192" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="K192" s="9"/>
       <c r="L192" s="9"/>
       <c r="M192" s="9"/>
@@ -7348,7 +7531,9 @@
       <c r="G195" s="9"/>
       <c r="H195" s="9"/>
       <c r="I195" s="9"/>
-      <c r="J195" s="9"/>
+      <c r="J195" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="K195" s="9"/>
       <c r="L195" s="9"/>
       <c r="M195" s="9"/>
@@ -7438,7 +7623,9 @@
       <c r="G198" s="9"/>
       <c r="H198" s="9"/>
       <c r="I198" s="9"/>
-      <c r="J198" s="9"/>
+      <c r="J198" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="K198" s="9"/>
       <c r="L198" s="9"/>
       <c r="M198" s="9"/>
@@ -7528,7 +7715,9 @@
       <c r="G201" s="9"/>
       <c r="H201" s="9"/>
       <c r="I201" s="9"/>
-      <c r="J201" s="9"/>
+      <c r="J201" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="K201" s="9"/>
       <c r="L201" s="9"/>
       <c r="M201" s="9"/>
@@ -7618,7 +7807,9 @@
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
       <c r="I204" s="9"/>
-      <c r="J204" s="9"/>
+      <c r="J204" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="K204" s="9"/>
       <c r="L204" s="9"/>
       <c r="M204" s="9"/>
@@ -7708,7 +7899,9 @@
       <c r="G207" s="9"/>
       <c r="H207" s="9"/>
       <c r="I207" s="9"/>
-      <c r="J207" s="9"/>
+      <c r="J207" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="K207" s="9"/>
       <c r="L207" s="9"/>
       <c r="M207" s="9"/>
@@ -7798,7 +7991,9 @@
       <c r="G210" s="9"/>
       <c r="H210" s="9"/>
       <c r="I210" s="9"/>
-      <c r="J210" s="9"/>
+      <c r="J210" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="K210" s="9"/>
       <c r="L210" s="9"/>
       <c r="M210" s="9"/>
@@ -7888,7 +8083,9 @@
       <c r="G213" s="9"/>
       <c r="H213" s="9"/>
       <c r="I213" s="9"/>
-      <c r="J213" s="9"/>
+      <c r="J213" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="K213" s="9"/>
       <c r="L213" s="9"/>
       <c r="M213" s="9"/>
@@ -7978,7 +8175,9 @@
       <c r="G216" s="9"/>
       <c r="H216" s="9"/>
       <c r="I216" s="9"/>
-      <c r="J216" s="9"/>
+      <c r="J216" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="K216" s="9"/>
       <c r="L216" s="9"/>
       <c r="M216" s="9"/>
@@ -8038,10 +8237,10 @@
       <c r="G218" s="9"/>
       <c r="H218" s="9"/>
       <c r="I218" s="9"/>
-      <c r="J218" s="43"/>
-      <c r="K218" s="43"/>
-      <c r="L218" s="43"/>
-      <c r="M218" s="43"/>
+      <c r="J218" s="9"/>
+      <c r="K218" s="9"/>
+      <c r="L218" s="9"/>
+      <c r="M218" s="9"/>
       <c r="N218" s="9"/>
       <c r="O218" s="9"/>
       <c r="P218" s="9"/>
@@ -8057,7 +8256,7 @@
       <c r="Z218" s="9"/>
     </row>
     <row r="219" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="55">
+      <c r="A219" s="56">
         <v>1.1000000000000001</v>
       </c>
       <c r="B219" s="5" t="s">
@@ -8065,18 +8264,20 @@
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
-      <c r="E219" s="56" t="s">
+      <c r="E219" s="57" t="s">
         <v>95</v>
       </c>
       <c r="F219" s="11"/>
       <c r="G219" s="11"/>
       <c r="H219" s="11"/>
       <c r="I219" s="11"/>
-      <c r="J219" s="52"/>
-      <c r="K219" s="53"/>
-      <c r="L219" s="53"/>
-      <c r="M219" s="54"/>
-      <c r="N219" s="59" t="s">
+      <c r="J219" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="K219" s="54"/>
+      <c r="L219" s="54"/>
+      <c r="M219" s="55"/>
+      <c r="N219" s="60" t="s">
         <v>99</v>
       </c>
       <c r="O219" s="47"/>
@@ -8099,7 +8300,7 @@
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
-      <c r="E220" s="57"/>
+      <c r="E220" s="58"/>
       <c r="F220" s="9"/>
       <c r="G220" s="9"/>
       <c r="H220" s="9"/>
@@ -8127,7 +8328,7 @@
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
-      <c r="E221" s="57"/>
+      <c r="E221" s="58"/>
       <c r="F221" s="9"/>
       <c r="G221" s="9"/>
       <c r="H221" s="9"/>
@@ -8162,7 +8363,9 @@
       <c r="G222" s="24"/>
       <c r="H222" s="24"/>
       <c r="I222" s="24"/>
-      <c r="J222" s="8"/>
+      <c r="J222" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="K222" s="9"/>
       <c r="L222" s="9"/>
       <c r="M222" s="9"/>
@@ -8245,17 +8448,19 @@
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
-      <c r="E225" s="58" t="s">
+      <c r="E225" s="59" t="s">
         <v>97</v>
       </c>
       <c r="F225" s="9"/>
       <c r="G225" s="9"/>
       <c r="H225" s="9"/>
       <c r="I225" s="9"/>
-      <c r="J225" s="28"/>
-      <c r="K225" s="19"/>
-      <c r="L225" s="19"/>
-      <c r="M225" s="29"/>
+      <c r="J225" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="K225" s="9"/>
+      <c r="L225" s="9"/>
+      <c r="M225" s="9"/>
       <c r="N225" s="8" t="s">
         <v>98</v>
       </c>
@@ -8279,15 +8484,15 @@
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
-      <c r="E226" s="57"/>
+      <c r="E226" s="58"/>
       <c r="F226" s="9"/>
       <c r="G226" s="9"/>
       <c r="H226" s="9"/>
       <c r="I226" s="9"/>
-      <c r="J226" s="20"/>
-      <c r="K226" s="21"/>
-      <c r="L226" s="21"/>
-      <c r="M226" s="30"/>
+      <c r="J226" s="9"/>
+      <c r="K226" s="9"/>
+      <c r="L226" s="9"/>
+      <c r="M226" s="9"/>
       <c r="N226" s="9"/>
       <c r="O226" s="9"/>
       <c r="P226" s="9"/>
@@ -8307,15 +8512,15 @@
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
-      <c r="E227" s="57"/>
+      <c r="E227" s="58"/>
       <c r="F227" s="9"/>
       <c r="G227" s="9"/>
       <c r="H227" s="9"/>
       <c r="I227" s="9"/>
-      <c r="J227" s="22"/>
-      <c r="K227" s="23"/>
-      <c r="L227" s="23"/>
-      <c r="M227" s="31"/>
+      <c r="J227" s="9"/>
+      <c r="K227" s="9"/>
+      <c r="L227" s="9"/>
+      <c r="M227" s="9"/>
       <c r="N227" s="9"/>
       <c r="O227" s="9"/>
       <c r="P227" s="9"/>
@@ -8331,7 +8536,7 @@
       <c r="Z227" s="9"/>
     </row>
     <row r="228" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="55">
+      <c r="A228" s="56">
         <v>1.1100000000000001</v>
       </c>
       <c r="B228" s="5" t="s">
@@ -8339,18 +8544,20 @@
       </c>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
-      <c r="E228" s="56" t="s">
+      <c r="E228" s="57" t="s">
         <v>102</v>
       </c>
       <c r="F228" s="11"/>
       <c r="G228" s="11"/>
       <c r="H228" s="11"/>
       <c r="I228" s="11"/>
-      <c r="J228" s="52"/>
-      <c r="K228" s="53"/>
-      <c r="L228" s="53"/>
-      <c r="M228" s="54"/>
-      <c r="N228" s="59" t="s">
+      <c r="J228" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="K228" s="54"/>
+      <c r="L228" s="54"/>
+      <c r="M228" s="55"/>
+      <c r="N228" s="60" t="s">
         <v>103</v>
       </c>
       <c r="O228" s="47"/>
@@ -8373,7 +8580,7 @@
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
-      <c r="E229" s="57"/>
+      <c r="E229" s="58"/>
       <c r="F229" s="9"/>
       <c r="G229" s="9"/>
       <c r="H229" s="9"/>
@@ -8401,7 +8608,7 @@
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
-      <c r="E230" s="57"/>
+      <c r="E230" s="58"/>
       <c r="F230" s="9"/>
       <c r="G230" s="9"/>
       <c r="H230" s="9"/>
@@ -8410,11 +8617,11 @@
       <c r="K230" s="39"/>
       <c r="L230" s="39"/>
       <c r="M230" s="40"/>
-      <c r="N230" s="69"/>
-      <c r="O230" s="69"/>
-      <c r="P230" s="69"/>
-      <c r="Q230" s="69"/>
-      <c r="R230" s="69"/>
+      <c r="N230" s="70"/>
+      <c r="O230" s="70"/>
+      <c r="P230" s="70"/>
+      <c r="Q230" s="70"/>
+      <c r="R230" s="70"/>
       <c r="S230" s="49"/>
       <c r="T230" s="41"/>
       <c r="U230" s="41"/>
@@ -8425,7 +8632,7 @@
       <c r="Z230" s="9"/>
     </row>
     <row r="231" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="55">
+      <c r="A231" s="56">
         <v>1.1200000000000001</v>
       </c>
       <c r="B231" s="5" t="s">
@@ -8433,25 +8640,27 @@
       </c>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
-      <c r="E231" s="56" t="s">
+      <c r="E231" s="57" t="s">
         <v>105</v>
       </c>
       <c r="F231" s="11"/>
       <c r="G231" s="11"/>
       <c r="H231" s="11"/>
       <c r="I231" s="11"/>
-      <c r="J231" s="52"/>
-      <c r="K231" s="53"/>
-      <c r="L231" s="53"/>
-      <c r="M231" s="53"/>
-      <c r="N231" s="71" t="s">
+      <c r="J231" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="K231" s="54"/>
+      <c r="L231" s="54"/>
+      <c r="M231" s="54"/>
+      <c r="N231" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="O231" s="72"/>
-      <c r="P231" s="72"/>
-      <c r="Q231" s="72"/>
-      <c r="R231" s="73"/>
-      <c r="S231" s="67" t="s">
+      <c r="O231" s="73"/>
+      <c r="P231" s="73"/>
+      <c r="Q231" s="73"/>
+      <c r="R231" s="74"/>
+      <c r="S231" s="68" t="s">
         <v>41</v>
       </c>
       <c r="T231" s="47"/>
@@ -8467,7 +8676,7 @@
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
-      <c r="E232" s="57"/>
+      <c r="E232" s="58"/>
       <c r="F232" s="9"/>
       <c r="G232" s="9"/>
       <c r="H232" s="9"/>
@@ -8476,12 +8685,12 @@
       <c r="K232" s="36"/>
       <c r="L232" s="36"/>
       <c r="M232" s="36"/>
-      <c r="N232" s="74"/>
-      <c r="O232" s="70"/>
-      <c r="P232" s="70"/>
-      <c r="Q232" s="70"/>
-      <c r="R232" s="75"/>
-      <c r="S232" s="68"/>
+      <c r="N232" s="75"/>
+      <c r="O232" s="71"/>
+      <c r="P232" s="71"/>
+      <c r="Q232" s="71"/>
+      <c r="R232" s="76"/>
+      <c r="S232" s="69"/>
       <c r="T232" s="41"/>
       <c r="U232" s="41"/>
       <c r="V232" s="41"/>
@@ -8495,7 +8704,7 @@
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
-      <c r="E233" s="57"/>
+      <c r="E233" s="58"/>
       <c r="F233" s="9"/>
       <c r="G233" s="9"/>
       <c r="H233" s="9"/>
@@ -8504,12 +8713,12 @@
       <c r="K233" s="39"/>
       <c r="L233" s="39"/>
       <c r="M233" s="39"/>
-      <c r="N233" s="76"/>
-      <c r="O233" s="77"/>
-      <c r="P233" s="77"/>
-      <c r="Q233" s="77"/>
-      <c r="R233" s="78"/>
-      <c r="S233" s="68"/>
+      <c r="N233" s="77"/>
+      <c r="O233" s="78"/>
+      <c r="P233" s="78"/>
+      <c r="Q233" s="78"/>
+      <c r="R233" s="79"/>
+      <c r="S233" s="69"/>
       <c r="T233" s="41"/>
       <c r="U233" s="41"/>
       <c r="V233" s="41"/>
@@ -8519,7 +8728,7 @@
       <c r="Z233" s="9"/>
     </row>
     <row r="234" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="55">
+      <c r="A234" s="56">
         <v>1.1299999999999999</v>
       </c>
       <c r="B234" s="5" t="s">
@@ -8527,25 +8736,27 @@
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
-      <c r="E234" s="56" t="s">
+      <c r="E234" s="57" t="s">
         <v>108</v>
       </c>
       <c r="F234" s="11"/>
       <c r="G234" s="11"/>
       <c r="H234" s="11"/>
       <c r="I234" s="11"/>
-      <c r="J234" s="52"/>
-      <c r="K234" s="53"/>
-      <c r="L234" s="53"/>
-      <c r="M234" s="53"/>
-      <c r="N234" s="71" t="s">
+      <c r="J234" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="K234" s="54"/>
+      <c r="L234" s="54"/>
+      <c r="M234" s="54"/>
+      <c r="N234" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="O234" s="72"/>
-      <c r="P234" s="72"/>
-      <c r="Q234" s="72"/>
-      <c r="R234" s="73"/>
-      <c r="S234" s="67" t="s">
+      <c r="O234" s="73"/>
+      <c r="P234" s="73"/>
+      <c r="Q234" s="73"/>
+      <c r="R234" s="74"/>
+      <c r="S234" s="68" t="s">
         <v>41</v>
       </c>
       <c r="T234" s="47"/>
@@ -8561,7 +8772,7 @@
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
-      <c r="E235" s="57"/>
+      <c r="E235" s="58"/>
       <c r="F235" s="9"/>
       <c r="G235" s="9"/>
       <c r="H235" s="9"/>
@@ -8570,12 +8781,12 @@
       <c r="K235" s="36"/>
       <c r="L235" s="36"/>
       <c r="M235" s="36"/>
-      <c r="N235" s="74"/>
-      <c r="O235" s="70"/>
-      <c r="P235" s="70"/>
-      <c r="Q235" s="70"/>
-      <c r="R235" s="75"/>
-      <c r="S235" s="68"/>
+      <c r="N235" s="75"/>
+      <c r="O235" s="71"/>
+      <c r="P235" s="71"/>
+      <c r="Q235" s="71"/>
+      <c r="R235" s="76"/>
+      <c r="S235" s="69"/>
       <c r="T235" s="41"/>
       <c r="U235" s="41"/>
       <c r="V235" s="41"/>
@@ -8589,7 +8800,7 @@
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
-      <c r="E236" s="57"/>
+      <c r="E236" s="58"/>
       <c r="F236" s="9"/>
       <c r="G236" s="9"/>
       <c r="H236" s="9"/>
@@ -8598,12 +8809,12 @@
       <c r="K236" s="39"/>
       <c r="L236" s="39"/>
       <c r="M236" s="39"/>
-      <c r="N236" s="76"/>
-      <c r="O236" s="77"/>
-      <c r="P236" s="77"/>
-      <c r="Q236" s="77"/>
-      <c r="R236" s="78"/>
-      <c r="S236" s="68"/>
+      <c r="N236" s="77"/>
+      <c r="O236" s="78"/>
+      <c r="P236" s="78"/>
+      <c r="Q236" s="78"/>
+      <c r="R236" s="79"/>
+      <c r="S236" s="69"/>
       <c r="T236" s="41"/>
       <c r="U236" s="41"/>
       <c r="V236" s="41"/>
@@ -8613,7 +8824,7 @@
       <c r="Z236" s="9"/>
     </row>
     <row r="237" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="55">
+      <c r="A237" s="56">
         <v>1.1399999999999999</v>
       </c>
       <c r="B237" s="5" t="s">
@@ -8621,27 +8832,27 @@
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
-      <c r="E237" s="56" t="s">
+      <c r="E237" s="57" t="s">
         <v>117</v>
       </c>
       <c r="F237" s="11"/>
       <c r="G237" s="11"/>
       <c r="H237" s="11"/>
       <c r="I237" s="11"/>
-      <c r="J237" s="52" t="s">
+      <c r="J237" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="K237" s="53"/>
-      <c r="L237" s="53"/>
-      <c r="M237" s="53"/>
-      <c r="N237" s="71" t="s">
+      <c r="K237" s="54"/>
+      <c r="L237" s="54"/>
+      <c r="M237" s="54"/>
+      <c r="N237" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="O237" s="72"/>
-      <c r="P237" s="72"/>
-      <c r="Q237" s="72"/>
-      <c r="R237" s="73"/>
-      <c r="S237" s="67" t="s">
+      <c r="O237" s="73"/>
+      <c r="P237" s="73"/>
+      <c r="Q237" s="73"/>
+      <c r="R237" s="74"/>
+      <c r="S237" s="68" t="s">
         <v>41</v>
       </c>
       <c r="T237" s="47"/>
@@ -8657,7 +8868,7 @@
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
-      <c r="E238" s="57"/>
+      <c r="E238" s="58"/>
       <c r="F238" s="9"/>
       <c r="G238" s="9"/>
       <c r="H238" s="9"/>
@@ -8666,12 +8877,12 @@
       <c r="K238" s="36"/>
       <c r="L238" s="36"/>
       <c r="M238" s="36"/>
-      <c r="N238" s="74"/>
-      <c r="O238" s="70"/>
-      <c r="P238" s="70"/>
-      <c r="Q238" s="70"/>
-      <c r="R238" s="75"/>
-      <c r="S238" s="68"/>
+      <c r="N238" s="75"/>
+      <c r="O238" s="71"/>
+      <c r="P238" s="71"/>
+      <c r="Q238" s="71"/>
+      <c r="R238" s="76"/>
+      <c r="S238" s="69"/>
       <c r="T238" s="41"/>
       <c r="U238" s="41"/>
       <c r="V238" s="41"/>
@@ -8685,7 +8896,7 @@
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
-      <c r="E239" s="57"/>
+      <c r="E239" s="58"/>
       <c r="F239" s="9"/>
       <c r="G239" s="9"/>
       <c r="H239" s="9"/>
@@ -8694,12 +8905,12 @@
       <c r="K239" s="39"/>
       <c r="L239" s="39"/>
       <c r="M239" s="39"/>
-      <c r="N239" s="76"/>
-      <c r="O239" s="77"/>
-      <c r="P239" s="77"/>
-      <c r="Q239" s="77"/>
-      <c r="R239" s="78"/>
-      <c r="S239" s="68"/>
+      <c r="N239" s="77"/>
+      <c r="O239" s="78"/>
+      <c r="P239" s="78"/>
+      <c r="Q239" s="78"/>
+      <c r="R239" s="79"/>
+      <c r="S239" s="69"/>
       <c r="T239" s="41"/>
       <c r="U239" s="41"/>
       <c r="V239" s="41"/>
@@ -8709,7 +8920,7 @@
       <c r="Z239" s="9"/>
     </row>
     <row r="240" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="55">
+      <c r="A240" s="56">
         <v>1.1499999999999999</v>
       </c>
       <c r="B240" s="5" t="s">
@@ -8720,24 +8931,24 @@
       <c r="E240" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F240" s="60"/>
-      <c r="G240" s="60"/>
-      <c r="H240" s="60"/>
-      <c r="I240" s="61"/>
-      <c r="J240" s="52" t="s">
+      <c r="F240" s="61"/>
+      <c r="G240" s="61"/>
+      <c r="H240" s="61"/>
+      <c r="I240" s="62"/>
+      <c r="J240" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="K240" s="53"/>
-      <c r="L240" s="53"/>
-      <c r="M240" s="53"/>
-      <c r="N240" s="71" t="s">
+      <c r="K240" s="54"/>
+      <c r="L240" s="54"/>
+      <c r="M240" s="54"/>
+      <c r="N240" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="O240" s="72"/>
-      <c r="P240" s="72"/>
-      <c r="Q240" s="72"/>
-      <c r="R240" s="73"/>
-      <c r="S240" s="67" t="s">
+      <c r="O240" s="73"/>
+      <c r="P240" s="73"/>
+      <c r="Q240" s="73"/>
+      <c r="R240" s="74"/>
+      <c r="S240" s="68" t="s">
         <v>41</v>
       </c>
       <c r="T240" s="47"/>
@@ -8753,21 +8964,21 @@
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
-      <c r="E241" s="62"/>
-      <c r="F241" s="63"/>
-      <c r="G241" s="63"/>
-      <c r="H241" s="63"/>
-      <c r="I241" s="64"/>
+      <c r="E241" s="63"/>
+      <c r="F241" s="64"/>
+      <c r="G241" s="64"/>
+      <c r="H241" s="64"/>
+      <c r="I241" s="65"/>
       <c r="J241" s="35"/>
       <c r="K241" s="36"/>
       <c r="L241" s="36"/>
       <c r="M241" s="36"/>
-      <c r="N241" s="74"/>
-      <c r="O241" s="70"/>
-      <c r="P241" s="70"/>
-      <c r="Q241" s="70"/>
-      <c r="R241" s="75"/>
-      <c r="S241" s="68"/>
+      <c r="N241" s="75"/>
+      <c r="O241" s="71"/>
+      <c r="P241" s="71"/>
+      <c r="Q241" s="71"/>
+      <c r="R241" s="76"/>
+      <c r="S241" s="69"/>
       <c r="T241" s="41"/>
       <c r="U241" s="41"/>
       <c r="V241" s="41"/>
@@ -8781,21 +8992,21 @@
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
-      <c r="E242" s="65"/>
-      <c r="F242" s="66"/>
-      <c r="G242" s="66"/>
-      <c r="H242" s="66"/>
-      <c r="I242" s="56"/>
+      <c r="E242" s="66"/>
+      <c r="F242" s="67"/>
+      <c r="G242" s="67"/>
+      <c r="H242" s="67"/>
+      <c r="I242" s="57"/>
       <c r="J242" s="38"/>
       <c r="K242" s="39"/>
       <c r="L242" s="39"/>
       <c r="M242" s="39"/>
-      <c r="N242" s="76"/>
-      <c r="O242" s="77"/>
-      <c r="P242" s="77"/>
-      <c r="Q242" s="77"/>
-      <c r="R242" s="78"/>
-      <c r="S242" s="68"/>
+      <c r="N242" s="77"/>
+      <c r="O242" s="78"/>
+      <c r="P242" s="78"/>
+      <c r="Q242" s="78"/>
+      <c r="R242" s="79"/>
+      <c r="S242" s="69"/>
       <c r="T242" s="41"/>
       <c r="U242" s="41"/>
       <c r="V242" s="41"/>
@@ -8805,7 +9016,7 @@
       <c r="Z242" s="9"/>
     </row>
     <row r="243" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="55">
+      <c r="A243" s="56">
         <v>1.1499999999999999</v>
       </c>
       <c r="B243" s="5" t="s">
@@ -8816,24 +9027,24 @@
       <c r="E243" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F243" s="60"/>
-      <c r="G243" s="60"/>
-      <c r="H243" s="60"/>
-      <c r="I243" s="61"/>
-      <c r="J243" s="52" t="s">
+      <c r="F243" s="61"/>
+      <c r="G243" s="61"/>
+      <c r="H243" s="61"/>
+      <c r="I243" s="62"/>
+      <c r="J243" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="K243" s="53"/>
-      <c r="L243" s="53"/>
-      <c r="M243" s="53"/>
-      <c r="N243" s="71" t="s">
+      <c r="K243" s="54"/>
+      <c r="L243" s="54"/>
+      <c r="M243" s="54"/>
+      <c r="N243" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="O243" s="72"/>
-      <c r="P243" s="72"/>
-      <c r="Q243" s="72"/>
-      <c r="R243" s="73"/>
-      <c r="S243" s="67" t="s">
+      <c r="O243" s="73"/>
+      <c r="P243" s="73"/>
+      <c r="Q243" s="73"/>
+      <c r="R243" s="74"/>
+      <c r="S243" s="68" t="s">
         <v>41</v>
       </c>
       <c r="T243" s="47"/>
@@ -8849,21 +9060,21 @@
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
-      <c r="E244" s="62"/>
-      <c r="F244" s="63"/>
-      <c r="G244" s="63"/>
-      <c r="H244" s="63"/>
-      <c r="I244" s="64"/>
+      <c r="E244" s="63"/>
+      <c r="F244" s="64"/>
+      <c r="G244" s="64"/>
+      <c r="H244" s="64"/>
+      <c r="I244" s="65"/>
       <c r="J244" s="35"/>
       <c r="K244" s="36"/>
       <c r="L244" s="36"/>
       <c r="M244" s="36"/>
-      <c r="N244" s="74"/>
-      <c r="O244" s="70"/>
-      <c r="P244" s="70"/>
-      <c r="Q244" s="70"/>
-      <c r="R244" s="75"/>
-      <c r="S244" s="68"/>
+      <c r="N244" s="75"/>
+      <c r="O244" s="71"/>
+      <c r="P244" s="71"/>
+      <c r="Q244" s="71"/>
+      <c r="R244" s="76"/>
+      <c r="S244" s="69"/>
       <c r="T244" s="41"/>
       <c r="U244" s="41"/>
       <c r="V244" s="41"/>
@@ -8877,21 +9088,21 @@
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
-      <c r="E245" s="65"/>
-      <c r="F245" s="66"/>
-      <c r="G245" s="66"/>
-      <c r="H245" s="66"/>
-      <c r="I245" s="56"/>
+      <c r="E245" s="66"/>
+      <c r="F245" s="67"/>
+      <c r="G245" s="67"/>
+      <c r="H245" s="67"/>
+      <c r="I245" s="57"/>
       <c r="J245" s="38"/>
       <c r="K245" s="39"/>
       <c r="L245" s="39"/>
       <c r="M245" s="39"/>
-      <c r="N245" s="76"/>
-      <c r="O245" s="77"/>
-      <c r="P245" s="77"/>
-      <c r="Q245" s="77"/>
-      <c r="R245" s="78"/>
-      <c r="S245" s="68"/>
+      <c r="N245" s="77"/>
+      <c r="O245" s="78"/>
+      <c r="P245" s="78"/>
+      <c r="Q245" s="78"/>
+      <c r="R245" s="79"/>
+      <c r="S245" s="69"/>
       <c r="T245" s="41"/>
       <c r="U245" s="41"/>
       <c r="V245" s="41"/>
@@ -8901,28 +9112,28 @@
       <c r="Z245" s="9"/>
     </row>
     <row r="246" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="55">
+      <c r="A246" s="56">
         <v>1.1599999999999999</v>
       </c>
-      <c r="B246" s="52" t="s">
+      <c r="B246" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="C246" s="53"/>
-      <c r="D246" s="54"/>
+      <c r="C246" s="54"/>
+      <c r="D246" s="55"/>
       <c r="E246" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F246" s="60"/>
-      <c r="G246" s="60"/>
-      <c r="H246" s="60"/>
-      <c r="I246" s="61"/>
-      <c r="J246" s="52" t="s">
+      <c r="F246" s="61"/>
+      <c r="G246" s="61"/>
+      <c r="H246" s="61"/>
+      <c r="I246" s="62"/>
+      <c r="J246" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="K246" s="53"/>
-      <c r="L246" s="53"/>
-      <c r="M246" s="53"/>
-      <c r="N246" s="59" t="s">
+      <c r="K246" s="54"/>
+      <c r="L246" s="54"/>
+      <c r="M246" s="54"/>
+      <c r="N246" s="60" t="s">
         <v>122</v>
       </c>
       <c r="O246" s="47"/>
@@ -8945,11 +9156,11 @@
       <c r="B247" s="35"/>
       <c r="C247" s="36"/>
       <c r="D247" s="37"/>
-      <c r="E247" s="62"/>
-      <c r="F247" s="63"/>
-      <c r="G247" s="63"/>
-      <c r="H247" s="63"/>
-      <c r="I247" s="64"/>
+      <c r="E247" s="63"/>
+      <c r="F247" s="64"/>
+      <c r="G247" s="64"/>
+      <c r="H247" s="64"/>
+      <c r="I247" s="65"/>
       <c r="J247" s="35"/>
       <c r="K247" s="36"/>
       <c r="L247" s="36"/>
@@ -8973,11 +9184,11 @@
       <c r="B248" s="38"/>
       <c r="C248" s="39"/>
       <c r="D248" s="40"/>
-      <c r="E248" s="65"/>
-      <c r="F248" s="66"/>
-      <c r="G248" s="66"/>
-      <c r="H248" s="66"/>
-      <c r="I248" s="56"/>
+      <c r="E248" s="66"/>
+      <c r="F248" s="67"/>
+      <c r="G248" s="67"/>
+      <c r="H248" s="67"/>
+      <c r="I248" s="57"/>
       <c r="J248" s="38"/>
       <c r="K248" s="39"/>
       <c r="L248" s="39"/>
@@ -8997,7 +9208,7 @@
       <c r="Z248" s="9"/>
     </row>
     <row r="249" spans="1:26" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="55">
+      <c r="A249" s="56">
         <v>1.17</v>
       </c>
       <c r="B249" s="5" t="s">
@@ -9005,27 +9216,27 @@
       </c>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
-      <c r="E249" s="56" t="s">
+      <c r="E249" s="57" t="s">
         <v>124</v>
       </c>
       <c r="F249" s="11"/>
       <c r="G249" s="11"/>
       <c r="H249" s="11"/>
       <c r="I249" s="11"/>
-      <c r="J249" s="52" t="s">
+      <c r="J249" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="K249" s="53"/>
-      <c r="L249" s="53"/>
-      <c r="M249" s="53"/>
-      <c r="N249" s="71" t="s">
+      <c r="K249" s="54"/>
+      <c r="L249" s="54"/>
+      <c r="M249" s="54"/>
+      <c r="N249" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="O249" s="72"/>
-      <c r="P249" s="72"/>
-      <c r="Q249" s="72"/>
-      <c r="R249" s="73"/>
-      <c r="S249" s="67" t="s">
+      <c r="O249" s="73"/>
+      <c r="P249" s="73"/>
+      <c r="Q249" s="73"/>
+      <c r="R249" s="74"/>
+      <c r="S249" s="68" t="s">
         <v>41</v>
       </c>
       <c r="T249" s="47"/>
@@ -9041,7 +9252,7 @@
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
-      <c r="E250" s="57"/>
+      <c r="E250" s="58"/>
       <c r="F250" s="9"/>
       <c r="G250" s="9"/>
       <c r="H250" s="9"/>
@@ -9050,12 +9261,12 @@
       <c r="K250" s="36"/>
       <c r="L250" s="36"/>
       <c r="M250" s="36"/>
-      <c r="N250" s="74"/>
-      <c r="O250" s="70"/>
-      <c r="P250" s="70"/>
-      <c r="Q250" s="70"/>
-      <c r="R250" s="75"/>
-      <c r="S250" s="68"/>
+      <c r="N250" s="75"/>
+      <c r="O250" s="71"/>
+      <c r="P250" s="71"/>
+      <c r="Q250" s="71"/>
+      <c r="R250" s="76"/>
+      <c r="S250" s="69"/>
       <c r="T250" s="41"/>
       <c r="U250" s="41"/>
       <c r="V250" s="41"/>
@@ -9069,7 +9280,7 @@
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
-      <c r="E251" s="57"/>
+      <c r="E251" s="58"/>
       <c r="F251" s="9"/>
       <c r="G251" s="9"/>
       <c r="H251" s="9"/>
@@ -9078,12 +9289,12 @@
       <c r="K251" s="39"/>
       <c r="L251" s="39"/>
       <c r="M251" s="39"/>
-      <c r="N251" s="76"/>
-      <c r="O251" s="77"/>
-      <c r="P251" s="77"/>
-      <c r="Q251" s="77"/>
-      <c r="R251" s="78"/>
-      <c r="S251" s="68"/>
+      <c r="N251" s="77"/>
+      <c r="O251" s="78"/>
+      <c r="P251" s="78"/>
+      <c r="Q251" s="78"/>
+      <c r="R251" s="79"/>
+      <c r="S251" s="69"/>
       <c r="T251" s="41"/>
       <c r="U251" s="41"/>
       <c r="V251" s="41"/>
@@ -9093,7 +9304,7 @@
       <c r="Z251" s="9"/>
     </row>
     <row r="252" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="55">
+      <c r="A252" s="56">
         <v>1.18</v>
       </c>
       <c r="B252" s="5" t="s">
@@ -9101,27 +9312,27 @@
       </c>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
-      <c r="E252" s="56" t="s">
+      <c r="E252" s="57" t="s">
         <v>129</v>
       </c>
       <c r="F252" s="11"/>
       <c r="G252" s="11"/>
       <c r="H252" s="11"/>
       <c r="I252" s="11"/>
-      <c r="J252" s="52" t="s">
+      <c r="J252" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="K252" s="53"/>
-      <c r="L252" s="53"/>
-      <c r="M252" s="53"/>
-      <c r="N252" s="71" t="s">
+      <c r="K252" s="54"/>
+      <c r="L252" s="54"/>
+      <c r="M252" s="54"/>
+      <c r="N252" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="O252" s="72"/>
-      <c r="P252" s="72"/>
-      <c r="Q252" s="72"/>
-      <c r="R252" s="73"/>
-      <c r="S252" s="67" t="s">
+      <c r="O252" s="73"/>
+      <c r="P252" s="73"/>
+      <c r="Q252" s="73"/>
+      <c r="R252" s="74"/>
+      <c r="S252" s="68" t="s">
         <v>41</v>
       </c>
       <c r="T252" s="47"/>
@@ -9137,7 +9348,7 @@
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
-      <c r="E253" s="57"/>
+      <c r="E253" s="58"/>
       <c r="F253" s="9"/>
       <c r="G253" s="9"/>
       <c r="H253" s="9"/>
@@ -9146,12 +9357,12 @@
       <c r="K253" s="36"/>
       <c r="L253" s="36"/>
       <c r="M253" s="36"/>
-      <c r="N253" s="74"/>
-      <c r="O253" s="70"/>
-      <c r="P253" s="70"/>
-      <c r="Q253" s="70"/>
-      <c r="R253" s="75"/>
-      <c r="S253" s="68"/>
+      <c r="N253" s="75"/>
+      <c r="O253" s="71"/>
+      <c r="P253" s="71"/>
+      <c r="Q253" s="71"/>
+      <c r="R253" s="76"/>
+      <c r="S253" s="69"/>
       <c r="T253" s="41"/>
       <c r="U253" s="41"/>
       <c r="V253" s="41"/>
@@ -9165,7 +9376,7 @@
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
-      <c r="E254" s="57"/>
+      <c r="E254" s="58"/>
       <c r="F254" s="9"/>
       <c r="G254" s="9"/>
       <c r="H254" s="9"/>
@@ -9174,12 +9385,12 @@
       <c r="K254" s="39"/>
       <c r="L254" s="39"/>
       <c r="M254" s="39"/>
-      <c r="N254" s="76"/>
-      <c r="O254" s="77"/>
-      <c r="P254" s="77"/>
-      <c r="Q254" s="77"/>
-      <c r="R254" s="78"/>
-      <c r="S254" s="68"/>
+      <c r="N254" s="77"/>
+      <c r="O254" s="78"/>
+      <c r="P254" s="78"/>
+      <c r="Q254" s="78"/>
+      <c r="R254" s="79"/>
+      <c r="S254" s="69"/>
       <c r="T254" s="41"/>
       <c r="U254" s="41"/>
       <c r="V254" s="41"/>
@@ -9189,7 +9400,7 @@
       <c r="Z254" s="9"/>
     </row>
     <row r="255" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="55">
+      <c r="A255" s="56">
         <v>1.19</v>
       </c>
       <c r="B255" s="5" t="s">
@@ -9197,27 +9408,27 @@
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
-      <c r="E255" s="56" t="s">
+      <c r="E255" s="57" t="s">
         <v>131</v>
       </c>
       <c r="F255" s="11"/>
       <c r="G255" s="11"/>
       <c r="H255" s="11"/>
       <c r="I255" s="11"/>
-      <c r="J255" s="52" t="s">
+      <c r="J255" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="K255" s="53"/>
-      <c r="L255" s="53"/>
-      <c r="M255" s="53"/>
-      <c r="N255" s="71" t="s">
+      <c r="K255" s="54"/>
+      <c r="L255" s="54"/>
+      <c r="M255" s="54"/>
+      <c r="N255" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="O255" s="72"/>
-      <c r="P255" s="72"/>
-      <c r="Q255" s="72"/>
-      <c r="R255" s="73"/>
-      <c r="S255" s="67" t="s">
+      <c r="O255" s="73"/>
+      <c r="P255" s="73"/>
+      <c r="Q255" s="73"/>
+      <c r="R255" s="74"/>
+      <c r="S255" s="68" t="s">
         <v>41</v>
       </c>
       <c r="T255" s="47"/>
@@ -9233,7 +9444,7 @@
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
-      <c r="E256" s="57"/>
+      <c r="E256" s="58"/>
       <c r="F256" s="9"/>
       <c r="G256" s="9"/>
       <c r="H256" s="9"/>
@@ -9242,12 +9453,12 @@
       <c r="K256" s="36"/>
       <c r="L256" s="36"/>
       <c r="M256" s="36"/>
-      <c r="N256" s="74"/>
-      <c r="O256" s="70"/>
-      <c r="P256" s="70"/>
-      <c r="Q256" s="70"/>
-      <c r="R256" s="75"/>
-      <c r="S256" s="68"/>
+      <c r="N256" s="75"/>
+      <c r="O256" s="71"/>
+      <c r="P256" s="71"/>
+      <c r="Q256" s="71"/>
+      <c r="R256" s="76"/>
+      <c r="S256" s="69"/>
       <c r="T256" s="41"/>
       <c r="U256" s="41"/>
       <c r="V256" s="41"/>
@@ -9261,7 +9472,7 @@
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
-      <c r="E257" s="57"/>
+      <c r="E257" s="58"/>
       <c r="F257" s="9"/>
       <c r="G257" s="9"/>
       <c r="H257" s="9"/>
@@ -9270,12 +9481,12 @@
       <c r="K257" s="39"/>
       <c r="L257" s="39"/>
       <c r="M257" s="39"/>
-      <c r="N257" s="76"/>
-      <c r="O257" s="77"/>
-      <c r="P257" s="77"/>
-      <c r="Q257" s="77"/>
-      <c r="R257" s="78"/>
-      <c r="S257" s="68"/>
+      <c r="N257" s="77"/>
+      <c r="O257" s="78"/>
+      <c r="P257" s="78"/>
+      <c r="Q257" s="78"/>
+      <c r="R257" s="79"/>
+      <c r="S257" s="69"/>
       <c r="T257" s="41"/>
       <c r="U257" s="41"/>
       <c r="V257" s="41"/>
@@ -9284,8 +9495,104 @@
       <c r="Y257" s="9"/>
       <c r="Z257" s="9"/>
     </row>
+    <row r="258" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="56">
+        <v>1.2</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5"/>
+      <c r="E258" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="F258" s="11"/>
+      <c r="G258" s="11"/>
+      <c r="H258" s="11"/>
+      <c r="I258" s="11"/>
+      <c r="J258" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="K258" s="54"/>
+      <c r="L258" s="54"/>
+      <c r="M258" s="55"/>
+      <c r="N258" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="O258" s="41"/>
+      <c r="P258" s="41"/>
+      <c r="Q258" s="41"/>
+      <c r="R258" s="41"/>
+      <c r="S258" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="T258" s="47"/>
+      <c r="U258" s="47"/>
+      <c r="V258" s="47"/>
+      <c r="W258" s="47"/>
+      <c r="X258" s="11"/>
+      <c r="Y258" s="11"/>
+      <c r="Z258" s="11"/>
+    </row>
+    <row r="259" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="50"/>
+      <c r="B259" s="6"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="58"/>
+      <c r="F259" s="9"/>
+      <c r="G259" s="9"/>
+      <c r="H259" s="9"/>
+      <c r="I259" s="9"/>
+      <c r="J259" s="35"/>
+      <c r="K259" s="36"/>
+      <c r="L259" s="36"/>
+      <c r="M259" s="37"/>
+      <c r="N259" s="41"/>
+      <c r="O259" s="41"/>
+      <c r="P259" s="41"/>
+      <c r="Q259" s="41"/>
+      <c r="R259" s="41"/>
+      <c r="S259" s="49"/>
+      <c r="T259" s="41"/>
+      <c r="U259" s="41"/>
+      <c r="V259" s="41"/>
+      <c r="W259" s="41"/>
+      <c r="X259" s="9"/>
+      <c r="Y259" s="9"/>
+      <c r="Z259" s="9"/>
+    </row>
+    <row r="260" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="51"/>
+      <c r="B260" s="7"/>
+      <c r="C260" s="7"/>
+      <c r="D260" s="7"/>
+      <c r="E260" s="58"/>
+      <c r="F260" s="9"/>
+      <c r="G260" s="9"/>
+      <c r="H260" s="9"/>
+      <c r="I260" s="9"/>
+      <c r="J260" s="38"/>
+      <c r="K260" s="39"/>
+      <c r="L260" s="39"/>
+      <c r="M260" s="40"/>
+      <c r="N260" s="41"/>
+      <c r="O260" s="41"/>
+      <c r="P260" s="41"/>
+      <c r="Q260" s="41"/>
+      <c r="R260" s="41"/>
+      <c r="S260" s="49"/>
+      <c r="T260" s="41"/>
+      <c r="U260" s="41"/>
+      <c r="V260" s="41"/>
+      <c r="W260" s="41"/>
+      <c r="X260" s="9"/>
+      <c r="Y260" s="9"/>
+      <c r="Z260" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="565">
     <mergeCell ref="A255:A257"/>
     <mergeCell ref="B255:D257"/>
     <mergeCell ref="E255:I257"/>
@@ -9294,6 +9601,14 @@
     <mergeCell ref="S255:S257"/>
     <mergeCell ref="T255:W257"/>
     <mergeCell ref="X255:Z257"/>
+    <mergeCell ref="A258:A260"/>
+    <mergeCell ref="B258:D260"/>
+    <mergeCell ref="E258:I260"/>
+    <mergeCell ref="J258:M260"/>
+    <mergeCell ref="N258:R260"/>
+    <mergeCell ref="S258:S260"/>
+    <mergeCell ref="T258:W260"/>
+    <mergeCell ref="X258:Z260"/>
     <mergeCell ref="N249:R251"/>
     <mergeCell ref="S249:S251"/>
     <mergeCell ref="T249:W251"/>
